--- a/Matthew Data.xlsx
+++ b/Matthew Data.xlsx
@@ -8,41 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Dropbox/Matthew/Documents/RBE 2002/RBE_2002-Team_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089A166C-61AE-5F48-81D0-4A86893C2F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BA2392-8361-0A46-8F0A-BC1326BBF897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BF9086FB-EEDA-7340-B38B-24D87DE37DE0}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{BF9086FB-EEDA-7340-B38B-24D87DE37DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2 - 100 Effort" sheetId="1" r:id="rId1"/>
-    <sheet name="Q3 - 50 mm s, Kp = 0.3" sheetId="2" r:id="rId2"/>
+    <sheet name="Q3 - 50 mm-s, Kp = 0.3" sheetId="2" r:id="rId2"/>
+    <sheet name="Q4 - 50 mm-s, Kp = 10" sheetId="3" r:id="rId3"/>
+    <sheet name="Q5 - 50 mm-s, Kp = .3, Ki = .1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Q2 - 100 Effort'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Q2 - 100 Effort'!$A$2:$A$200</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Q2 - 100 Effort'!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Q2 - 100 Effort'!$C$2:$C$200</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Q2 - 100 Effort'!$A$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Q2 - 100 Effort'!$A$2:$A$200</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Q2 - 100 Effort'!$B$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Q2 - 100 Effort'!$B$2:$B$200</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Q2 - 100 Effort'!$C$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Q2 - 100 Effort'!$C$2:$C$200</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Q2 - 100 Effort'!$A$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Q2 - 100 Effort'!$A$2:$A$200</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Q2 - 100 Effort'!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Q2 - 100 Effort'!$B$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Q2 - 100 Effort'!$B$2:$B$200</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Q2 - 100 Effort'!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Q2 - 100 Effort'!$C$2:$C$200</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Q2 - 100 Effort'!$B$2:$B$200</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Q2 - 100 Effort'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Q2 - 100 Effort'!$C$2:$C$200</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Q2 - 100 Effort'!$A$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Q2 - 100 Effort'!$A$2:$A$200</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Q2 - 100 Effort'!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Q2 - 100 Effort'!$B$2:$B$200</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,27 +37,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>Left Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Left Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Left Effort</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right Effort</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Time (ms)</t>
   </si>
   <si>
-    <t>Right Speed</t>
+    <t>Left Speed (m/s)</t>
+  </si>
+  <si>
+    <t>Right Speed  (m/s)</t>
+  </si>
+  <si>
+    <t>Left Speed  (m/s)</t>
+  </si>
+  <si>
+    <t>Left Error  (m/s)</t>
+  </si>
+  <si>
+    <t>Right Error  (m/s)</t>
+  </si>
+  <si>
+    <t>Right Effort</t>
+  </si>
+  <si>
+    <t>Left Effort</t>
+  </si>
+  <si>
+    <t>Left Error (m/s)</t>
+  </si>
+  <si>
+    <t>Right Speed (m/s)</t>
+  </si>
+  <si>
+    <t>Right Error (m/s)</t>
   </si>
 </sst>
 </file>
@@ -3800,25 +3788,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A9300E-46C4-2A4D-950D-E28FCA0356E1}">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6218,33 +6206,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506032B0-FAD5-1B44-8D4D-975DD18F0FB8}">
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -11016,6 +11012,9644 @@
       </c>
       <c r="F200">
         <v>11.33</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="3"/>
+        <v>9900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A0B43B-5F68-504B-8F7C-2DB455E58917}">
+  <dimension ref="A1:G200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>348.19</v>
+      </c>
+      <c r="B3">
+        <v>345.14</v>
+      </c>
+      <c r="C3">
+        <v>-298.19</v>
+      </c>
+      <c r="D3">
+        <v>-295.14</v>
+      </c>
+      <c r="E3">
+        <v>-2981.93</v>
+      </c>
+      <c r="F3">
+        <v>-2951.39</v>
+      </c>
+      <c r="G3">
+        <f>G2+50</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>122.17</v>
+      </c>
+      <c r="B4">
+        <v>134.38999999999999</v>
+      </c>
+      <c r="C4">
+        <v>-72.17</v>
+      </c>
+      <c r="D4">
+        <v>-84.39</v>
+      </c>
+      <c r="E4">
+        <v>-721.73</v>
+      </c>
+      <c r="F4">
+        <v>-843.9</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="0">G3+50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-543.66999999999996</v>
+      </c>
+      <c r="B5">
+        <v>-543.66999999999996</v>
+      </c>
+      <c r="C5">
+        <v>593.66999999999996</v>
+      </c>
+      <c r="D5">
+        <v>593.66999999999996</v>
+      </c>
+      <c r="E5">
+        <v>5936.7</v>
+      </c>
+      <c r="F5">
+        <v>5936.7</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-192.42</v>
+      </c>
+      <c r="B6">
+        <v>-167.99</v>
+      </c>
+      <c r="C6">
+        <v>242.42</v>
+      </c>
+      <c r="D6">
+        <v>217.99</v>
+      </c>
+      <c r="E6">
+        <v>2424.23</v>
+      </c>
+      <c r="F6">
+        <v>2179.88</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>528.4</v>
+      </c>
+      <c r="B7">
+        <v>519.24</v>
+      </c>
+      <c r="C7">
+        <v>-478.4</v>
+      </c>
+      <c r="D7">
+        <v>-469.24</v>
+      </c>
+      <c r="E7">
+        <v>-4783.9799999999996</v>
+      </c>
+      <c r="F7">
+        <v>-4692.3500000000004</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>262.67</v>
+      </c>
+      <c r="B8">
+        <v>274.89</v>
+      </c>
+      <c r="C8">
+        <v>-212.67</v>
+      </c>
+      <c r="D8">
+        <v>-224.89</v>
+      </c>
+      <c r="E8">
+        <v>-2126.7199999999998</v>
+      </c>
+      <c r="F8">
+        <v>-2248.89</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-473.42</v>
+      </c>
+      <c r="B9">
+        <v>-464.26</v>
+      </c>
+      <c r="C9">
+        <v>523.41999999999996</v>
+      </c>
+      <c r="D9">
+        <v>514.26</v>
+      </c>
+      <c r="E9">
+        <v>5234.21</v>
+      </c>
+      <c r="F9">
+        <v>5142.58</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-82.47</v>
+      </c>
+      <c r="B10">
+        <v>-91.63</v>
+      </c>
+      <c r="C10">
+        <v>132.47</v>
+      </c>
+      <c r="D10">
+        <v>141.63</v>
+      </c>
+      <c r="E10">
+        <v>1324.67</v>
+      </c>
+      <c r="F10">
+        <v>1416.3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>562</v>
+      </c>
+      <c r="B11">
+        <v>546.72</v>
+      </c>
+      <c r="C11">
+        <v>-512</v>
+      </c>
+      <c r="D11">
+        <v>-496.72</v>
+      </c>
+      <c r="E11">
+        <v>-5119.96</v>
+      </c>
+      <c r="F11">
+        <v>-4967.24</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>241.29</v>
+      </c>
+      <c r="B12">
+        <v>271.83999999999997</v>
+      </c>
+      <c r="C12">
+        <v>-191.29</v>
+      </c>
+      <c r="D12">
+        <v>-221.84</v>
+      </c>
+      <c r="E12">
+        <v>-1912.92</v>
+      </c>
+      <c r="F12">
+        <v>-2218.35</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-488.69</v>
+      </c>
+      <c r="B13">
+        <v>-473.42</v>
+      </c>
+      <c r="C13">
+        <v>538.69000000000005</v>
+      </c>
+      <c r="D13">
+        <v>523.41999999999996</v>
+      </c>
+      <c r="E13">
+        <v>5386.92</v>
+      </c>
+      <c r="F13">
+        <v>5234.21</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-88.58</v>
+      </c>
+      <c r="B14">
+        <v>-97.74</v>
+      </c>
+      <c r="C14">
+        <v>138.58000000000001</v>
+      </c>
+      <c r="D14">
+        <v>147.74</v>
+      </c>
+      <c r="E14">
+        <v>1385.75</v>
+      </c>
+      <c r="F14">
+        <v>1477.38</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>552.83000000000004</v>
+      </c>
+      <c r="B15">
+        <v>537.55999999999995</v>
+      </c>
+      <c r="C15">
+        <v>-502.83</v>
+      </c>
+      <c r="D15">
+        <v>-487.56</v>
+      </c>
+      <c r="E15">
+        <v>-5028.33</v>
+      </c>
+      <c r="F15">
+        <v>-4875.6099999999997</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>174.1</v>
+      </c>
+      <c r="B16">
+        <v>186.31</v>
+      </c>
+      <c r="C16">
+        <v>-124.1</v>
+      </c>
+      <c r="D16">
+        <v>-136.31</v>
+      </c>
+      <c r="E16">
+        <v>-1240.97</v>
+      </c>
+      <c r="F16">
+        <v>-1363.14</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-519.24</v>
+      </c>
+      <c r="B17">
+        <v>-519.24</v>
+      </c>
+      <c r="C17">
+        <v>569.24</v>
+      </c>
+      <c r="D17">
+        <v>569.24</v>
+      </c>
+      <c r="E17">
+        <v>5692.35</v>
+      </c>
+      <c r="F17">
+        <v>5692.35</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-100.79</v>
+      </c>
+      <c r="B18">
+        <v>-116.06</v>
+      </c>
+      <c r="C18">
+        <v>150.79</v>
+      </c>
+      <c r="D18">
+        <v>166.06</v>
+      </c>
+      <c r="E18">
+        <v>1507.93</v>
+      </c>
+      <c r="F18">
+        <v>1660.64</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>546.72</v>
+      </c>
+      <c r="B19">
+        <v>534.51</v>
+      </c>
+      <c r="C19">
+        <v>-496.72</v>
+      </c>
+      <c r="D19">
+        <v>-484.51</v>
+      </c>
+      <c r="E19">
+        <v>-4967.24</v>
+      </c>
+      <c r="F19">
+        <v>-4845.07</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>146.61000000000001</v>
+      </c>
+      <c r="B20">
+        <v>143.55000000000001</v>
+      </c>
+      <c r="C20">
+        <v>-96.61</v>
+      </c>
+      <c r="D20">
+        <v>-93.55</v>
+      </c>
+      <c r="E20">
+        <v>-966.08</v>
+      </c>
+      <c r="F20">
+        <v>-935.53</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-516.17999999999995</v>
+      </c>
+      <c r="B21">
+        <v>-522.29</v>
+      </c>
+      <c r="C21">
+        <v>566.17999999999995</v>
+      </c>
+      <c r="D21">
+        <v>572.29</v>
+      </c>
+      <c r="E21">
+        <v>5661.81</v>
+      </c>
+      <c r="F21">
+        <v>5722.9</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-103.85</v>
+      </c>
+      <c r="B22">
+        <v>-119.12</v>
+      </c>
+      <c r="C22">
+        <v>153.85</v>
+      </c>
+      <c r="D22">
+        <v>169.12</v>
+      </c>
+      <c r="E22">
+        <v>1538.47</v>
+      </c>
+      <c r="F22">
+        <v>1691.19</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>543.66999999999996</v>
+      </c>
+      <c r="B23">
+        <v>525.34</v>
+      </c>
+      <c r="C23">
+        <v>-493.67</v>
+      </c>
+      <c r="D23">
+        <v>-475.34</v>
+      </c>
+      <c r="E23">
+        <v>-4936.7</v>
+      </c>
+      <c r="F23">
+        <v>-4753.4399999999996</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>137.44</v>
+      </c>
+      <c r="B24">
+        <v>149.66</v>
+      </c>
+      <c r="C24">
+        <v>-87.44</v>
+      </c>
+      <c r="D24">
+        <v>-99.66</v>
+      </c>
+      <c r="E24">
+        <v>-874.45</v>
+      </c>
+      <c r="F24">
+        <v>-996.62</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>-522.29</v>
+      </c>
+      <c r="B25">
+        <v>-525.34</v>
+      </c>
+      <c r="C25">
+        <v>572.29</v>
+      </c>
+      <c r="D25">
+        <v>575.34</v>
+      </c>
+      <c r="E25">
+        <v>5722.9</v>
+      </c>
+      <c r="F25">
+        <v>5753.44</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-113.01</v>
+      </c>
+      <c r="B26">
+        <v>-128.28</v>
+      </c>
+      <c r="C26">
+        <v>163.01</v>
+      </c>
+      <c r="D26">
+        <v>178.28</v>
+      </c>
+      <c r="E26">
+        <v>1630.1</v>
+      </c>
+      <c r="F26">
+        <v>1782.82</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>537.55999999999995</v>
+      </c>
+      <c r="B27">
+        <v>513.13</v>
+      </c>
+      <c r="C27">
+        <v>-487.56</v>
+      </c>
+      <c r="D27">
+        <v>-463.13</v>
+      </c>
+      <c r="E27">
+        <v>-4875.6099999999997</v>
+      </c>
+      <c r="F27">
+        <v>-4631.2700000000004</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>122.17</v>
+      </c>
+      <c r="B28">
+        <v>109.96</v>
+      </c>
+      <c r="C28">
+        <v>-72.17</v>
+      </c>
+      <c r="D28">
+        <v>-59.96</v>
+      </c>
+      <c r="E28">
+        <v>-721.73</v>
+      </c>
+      <c r="F28">
+        <v>-599.55999999999995</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-528.4</v>
+      </c>
+      <c r="B29">
+        <v>-534.51</v>
+      </c>
+      <c r="C29">
+        <v>578.4</v>
+      </c>
+      <c r="D29">
+        <v>584.51</v>
+      </c>
+      <c r="E29">
+        <v>5783.98</v>
+      </c>
+      <c r="F29">
+        <v>5845.07</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-106.9</v>
+      </c>
+      <c r="B30">
+        <v>-119.12</v>
+      </c>
+      <c r="C30">
+        <v>156.9</v>
+      </c>
+      <c r="D30">
+        <v>169.12</v>
+      </c>
+      <c r="E30">
+        <v>1569.01</v>
+      </c>
+      <c r="F30">
+        <v>1691.19</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>537.55999999999995</v>
+      </c>
+      <c r="B31">
+        <v>522.29</v>
+      </c>
+      <c r="C31">
+        <v>-487.56</v>
+      </c>
+      <c r="D31">
+        <v>-472.29</v>
+      </c>
+      <c r="E31">
+        <v>-4875.6099999999997</v>
+      </c>
+      <c r="F31">
+        <v>-4722.8999999999996</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>122.17</v>
+      </c>
+      <c r="B32">
+        <v>122.17</v>
+      </c>
+      <c r="C32">
+        <v>-72.17</v>
+      </c>
+      <c r="D32">
+        <v>-72.17</v>
+      </c>
+      <c r="E32">
+        <v>-721.73</v>
+      </c>
+      <c r="F32">
+        <v>-721.73</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-522.29</v>
+      </c>
+      <c r="B33">
+        <v>-522.29</v>
+      </c>
+      <c r="C33">
+        <v>572.29</v>
+      </c>
+      <c r="D33">
+        <v>572.29</v>
+      </c>
+      <c r="E33">
+        <v>5722.9</v>
+      </c>
+      <c r="F33">
+        <v>5722.9</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-113.01</v>
+      </c>
+      <c r="B34">
+        <v>-125.23</v>
+      </c>
+      <c r="C34">
+        <v>163.01</v>
+      </c>
+      <c r="D34">
+        <v>175.23</v>
+      </c>
+      <c r="E34">
+        <v>1630.1</v>
+      </c>
+      <c r="F34">
+        <v>1752.27</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>531.45000000000005</v>
+      </c>
+      <c r="B35">
+        <v>513.13</v>
+      </c>
+      <c r="C35">
+        <v>-481.45</v>
+      </c>
+      <c r="D35">
+        <v>-463.13</v>
+      </c>
+      <c r="E35">
+        <v>-4814.53</v>
+      </c>
+      <c r="F35">
+        <v>-4631.2700000000004</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>113.01</v>
+      </c>
+      <c r="B36">
+        <v>106.9</v>
+      </c>
+      <c r="C36">
+        <v>-63.01</v>
+      </c>
+      <c r="D36">
+        <v>-56.9</v>
+      </c>
+      <c r="E36">
+        <v>-630.1</v>
+      </c>
+      <c r="F36">
+        <v>-569.01</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>-510.07</v>
+      </c>
+      <c r="B37">
+        <v>-513.13</v>
+      </c>
+      <c r="C37">
+        <v>560.07000000000005</v>
+      </c>
+      <c r="D37">
+        <v>563.13</v>
+      </c>
+      <c r="E37">
+        <v>5600.72</v>
+      </c>
+      <c r="F37">
+        <v>5631.27</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>-113.01</v>
+      </c>
+      <c r="B38">
+        <v>-113.01</v>
+      </c>
+      <c r="C38">
+        <v>163.01</v>
+      </c>
+      <c r="D38">
+        <v>163.01</v>
+      </c>
+      <c r="E38">
+        <v>1630.1</v>
+      </c>
+      <c r="F38">
+        <v>1630.1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>528.4</v>
+      </c>
+      <c r="B39">
+        <v>516.17999999999995</v>
+      </c>
+      <c r="C39">
+        <v>-478.4</v>
+      </c>
+      <c r="D39">
+        <v>-466.18</v>
+      </c>
+      <c r="E39">
+        <v>-4783.9799999999996</v>
+      </c>
+      <c r="F39">
+        <v>-4661.8100000000004</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>119.12</v>
+      </c>
+      <c r="B40">
+        <v>113.01</v>
+      </c>
+      <c r="C40">
+        <v>-69.12</v>
+      </c>
+      <c r="D40">
+        <v>-63.01</v>
+      </c>
+      <c r="E40">
+        <v>-691.19</v>
+      </c>
+      <c r="F40">
+        <v>-630.1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>-522.29</v>
+      </c>
+      <c r="B41">
+        <v>-522.29</v>
+      </c>
+      <c r="C41">
+        <v>572.29</v>
+      </c>
+      <c r="D41">
+        <v>572.29</v>
+      </c>
+      <c r="E41">
+        <v>5722.9</v>
+      </c>
+      <c r="F41">
+        <v>5722.9</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>-113.01</v>
+      </c>
+      <c r="B42">
+        <v>-125.23</v>
+      </c>
+      <c r="C42">
+        <v>163.01</v>
+      </c>
+      <c r="D42">
+        <v>175.23</v>
+      </c>
+      <c r="E42">
+        <v>1630.1</v>
+      </c>
+      <c r="F42">
+        <v>1752.27</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>516.17999999999995</v>
+      </c>
+      <c r="B43">
+        <v>488.69</v>
+      </c>
+      <c r="C43">
+        <v>-466.18</v>
+      </c>
+      <c r="D43">
+        <v>-438.69</v>
+      </c>
+      <c r="E43">
+        <v>-4661.8100000000004</v>
+      </c>
+      <c r="F43">
+        <v>-4386.92</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>116.06</v>
+      </c>
+      <c r="B44">
+        <v>106.9</v>
+      </c>
+      <c r="C44">
+        <v>-66.06</v>
+      </c>
+      <c r="D44">
+        <v>-56.9</v>
+      </c>
+      <c r="E44">
+        <v>-660.64</v>
+      </c>
+      <c r="F44">
+        <v>-569.01</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>-516.17999999999995</v>
+      </c>
+      <c r="B45">
+        <v>-519.24</v>
+      </c>
+      <c r="C45">
+        <v>566.17999999999995</v>
+      </c>
+      <c r="D45">
+        <v>569.24</v>
+      </c>
+      <c r="E45">
+        <v>5661.81</v>
+      </c>
+      <c r="F45">
+        <v>5692.35</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>-106.9</v>
+      </c>
+      <c r="B46">
+        <v>-116.06</v>
+      </c>
+      <c r="C46">
+        <v>156.9</v>
+      </c>
+      <c r="D46">
+        <v>166.06</v>
+      </c>
+      <c r="E46">
+        <v>1569.01</v>
+      </c>
+      <c r="F46">
+        <v>1660.64</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>528.4</v>
+      </c>
+      <c r="B47">
+        <v>503.96</v>
+      </c>
+      <c r="C47">
+        <v>-478.4</v>
+      </c>
+      <c r="D47">
+        <v>-453.96</v>
+      </c>
+      <c r="E47">
+        <v>-4783.9799999999996</v>
+      </c>
+      <c r="F47">
+        <v>-4539.6400000000003</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>119.12</v>
+      </c>
+      <c r="B48">
+        <v>109.96</v>
+      </c>
+      <c r="C48">
+        <v>-69.12</v>
+      </c>
+      <c r="D48">
+        <v>-59.96</v>
+      </c>
+      <c r="E48">
+        <v>-691.19</v>
+      </c>
+      <c r="F48">
+        <v>-599.55999999999995</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>-500.91</v>
+      </c>
+      <c r="B49">
+        <v>-503.96</v>
+      </c>
+      <c r="C49">
+        <v>550.91</v>
+      </c>
+      <c r="D49">
+        <v>553.96</v>
+      </c>
+      <c r="E49">
+        <v>5509.1</v>
+      </c>
+      <c r="F49">
+        <v>5539.64</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>-106.9</v>
+      </c>
+      <c r="B50">
+        <v>-116.06</v>
+      </c>
+      <c r="C50">
+        <v>156.9</v>
+      </c>
+      <c r="D50">
+        <v>166.06</v>
+      </c>
+      <c r="E50">
+        <v>1569.01</v>
+      </c>
+      <c r="F50">
+        <v>1660.64</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>522.29</v>
+      </c>
+      <c r="B51">
+        <v>503.96</v>
+      </c>
+      <c r="C51">
+        <v>-472.29</v>
+      </c>
+      <c r="D51">
+        <v>-453.96</v>
+      </c>
+      <c r="E51">
+        <v>-4722.8999999999996</v>
+      </c>
+      <c r="F51">
+        <v>-4539.6400000000003</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>119.12</v>
+      </c>
+      <c r="B52">
+        <v>113.01</v>
+      </c>
+      <c r="C52">
+        <v>-69.12</v>
+      </c>
+      <c r="D52">
+        <v>-63.01</v>
+      </c>
+      <c r="E52">
+        <v>-691.19</v>
+      </c>
+      <c r="F52">
+        <v>-630.1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>-510.07</v>
+      </c>
+      <c r="B53">
+        <v>-516.17999999999995</v>
+      </c>
+      <c r="C53">
+        <v>560.07000000000005</v>
+      </c>
+      <c r="D53">
+        <v>566.17999999999995</v>
+      </c>
+      <c r="E53">
+        <v>5600.72</v>
+      </c>
+      <c r="F53">
+        <v>5661.81</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>-106.9</v>
+      </c>
+      <c r="B54">
+        <v>-122.17</v>
+      </c>
+      <c r="C54">
+        <v>156.9</v>
+      </c>
+      <c r="D54">
+        <v>172.17</v>
+      </c>
+      <c r="E54">
+        <v>1569.01</v>
+      </c>
+      <c r="F54">
+        <v>1721.73</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>510.07</v>
+      </c>
+      <c r="B55">
+        <v>488.69</v>
+      </c>
+      <c r="C55">
+        <v>-460.07</v>
+      </c>
+      <c r="D55">
+        <v>-438.69</v>
+      </c>
+      <c r="E55">
+        <v>-4600.72</v>
+      </c>
+      <c r="F55">
+        <v>-4386.92</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>119.12</v>
+      </c>
+      <c r="B56">
+        <v>106.9</v>
+      </c>
+      <c r="C56">
+        <v>-69.12</v>
+      </c>
+      <c r="D56">
+        <v>-56.9</v>
+      </c>
+      <c r="E56">
+        <v>-691.19</v>
+      </c>
+      <c r="F56">
+        <v>-569.01</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>-510.07</v>
+      </c>
+      <c r="B57">
+        <v>-516.17999999999995</v>
+      </c>
+      <c r="C57">
+        <v>560.07000000000005</v>
+      </c>
+      <c r="D57">
+        <v>566.17999999999995</v>
+      </c>
+      <c r="E57">
+        <v>5600.72</v>
+      </c>
+      <c r="F57">
+        <v>5661.81</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>-113.01</v>
+      </c>
+      <c r="B58">
+        <v>-122.17</v>
+      </c>
+      <c r="C58">
+        <v>163.01</v>
+      </c>
+      <c r="D58">
+        <v>172.17</v>
+      </c>
+      <c r="E58">
+        <v>1630.1</v>
+      </c>
+      <c r="F58">
+        <v>1721.73</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>516.17999999999995</v>
+      </c>
+      <c r="B59">
+        <v>500.91</v>
+      </c>
+      <c r="C59">
+        <v>-466.18</v>
+      </c>
+      <c r="D59">
+        <v>-450.91</v>
+      </c>
+      <c r="E59">
+        <v>-4661.8100000000004</v>
+      </c>
+      <c r="F59">
+        <v>-4509.1000000000004</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>116.06</v>
+      </c>
+      <c r="B60">
+        <v>116.06</v>
+      </c>
+      <c r="C60">
+        <v>-66.06</v>
+      </c>
+      <c r="D60">
+        <v>-66.06</v>
+      </c>
+      <c r="E60">
+        <v>-660.64</v>
+      </c>
+      <c r="F60">
+        <v>-660.64</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>-510.07</v>
+      </c>
+      <c r="B61">
+        <v>-513.13</v>
+      </c>
+      <c r="C61">
+        <v>560.07000000000005</v>
+      </c>
+      <c r="D61">
+        <v>563.13</v>
+      </c>
+      <c r="E61">
+        <v>5600.72</v>
+      </c>
+      <c r="F61">
+        <v>5631.27</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>-116.06</v>
+      </c>
+      <c r="B62">
+        <v>-122.17</v>
+      </c>
+      <c r="C62">
+        <v>166.06</v>
+      </c>
+      <c r="D62">
+        <v>172.17</v>
+      </c>
+      <c r="E62">
+        <v>1660.64</v>
+      </c>
+      <c r="F62">
+        <v>1721.73</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>513.13</v>
+      </c>
+      <c r="B63">
+        <v>494.8</v>
+      </c>
+      <c r="C63">
+        <v>-463.13</v>
+      </c>
+      <c r="D63">
+        <v>-444.8</v>
+      </c>
+      <c r="E63">
+        <v>-4631.2700000000004</v>
+      </c>
+      <c r="F63">
+        <v>-4448.01</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>119.12</v>
+      </c>
+      <c r="B64">
+        <v>109.96</v>
+      </c>
+      <c r="C64">
+        <v>-69.12</v>
+      </c>
+      <c r="D64">
+        <v>-59.96</v>
+      </c>
+      <c r="E64">
+        <v>-691.19</v>
+      </c>
+      <c r="F64">
+        <v>-599.55999999999995</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>-513.13</v>
+      </c>
+      <c r="B65">
+        <v>-516.17999999999995</v>
+      </c>
+      <c r="C65">
+        <v>563.13</v>
+      </c>
+      <c r="D65">
+        <v>566.17999999999995</v>
+      </c>
+      <c r="E65">
+        <v>5631.27</v>
+      </c>
+      <c r="F65">
+        <v>5661.81</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>-116.06</v>
+      </c>
+      <c r="B66">
+        <v>-134.38999999999999</v>
+      </c>
+      <c r="C66">
+        <v>166.06</v>
+      </c>
+      <c r="D66">
+        <v>184.39</v>
+      </c>
+      <c r="E66">
+        <v>1660.64</v>
+      </c>
+      <c r="F66">
+        <v>1843.9</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>507.02</v>
+      </c>
+      <c r="B67">
+        <v>482.58</v>
+      </c>
+      <c r="C67">
+        <v>-457.02</v>
+      </c>
+      <c r="D67">
+        <v>-432.58</v>
+      </c>
+      <c r="E67">
+        <v>-4570.18</v>
+      </c>
+      <c r="F67">
+        <v>-4325.84</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>125.23</v>
+      </c>
+      <c r="B68">
+        <v>103.85</v>
+      </c>
+      <c r="C68">
+        <v>-75.23</v>
+      </c>
+      <c r="D68">
+        <v>-53.85</v>
+      </c>
+      <c r="E68">
+        <v>-752.27</v>
+      </c>
+      <c r="F68">
+        <v>-538.47</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G131" si="1">G67+50</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>-500.91</v>
+      </c>
+      <c r="B69">
+        <v>-516.17999999999995</v>
+      </c>
+      <c r="C69">
+        <v>550.91</v>
+      </c>
+      <c r="D69">
+        <v>566.17999999999995</v>
+      </c>
+      <c r="E69">
+        <v>5509.1</v>
+      </c>
+      <c r="F69">
+        <v>5661.81</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>-116.06</v>
+      </c>
+      <c r="B70">
+        <v>-134.38999999999999</v>
+      </c>
+      <c r="C70">
+        <v>166.06</v>
+      </c>
+      <c r="D70">
+        <v>184.39</v>
+      </c>
+      <c r="E70">
+        <v>1660.64</v>
+      </c>
+      <c r="F70">
+        <v>1843.9</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>503.96</v>
+      </c>
+      <c r="B71">
+        <v>488.69</v>
+      </c>
+      <c r="C71">
+        <v>-453.96</v>
+      </c>
+      <c r="D71">
+        <v>-438.69</v>
+      </c>
+      <c r="E71">
+        <v>-4539.6400000000003</v>
+      </c>
+      <c r="F71">
+        <v>-4386.92</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>125.23</v>
+      </c>
+      <c r="B72">
+        <v>113.01</v>
+      </c>
+      <c r="C72">
+        <v>-75.23</v>
+      </c>
+      <c r="D72">
+        <v>-63.01</v>
+      </c>
+      <c r="E72">
+        <v>-752.27</v>
+      </c>
+      <c r="F72">
+        <v>-630.1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>-497.86</v>
+      </c>
+      <c r="B73">
+        <v>-510.07</v>
+      </c>
+      <c r="C73">
+        <v>547.86</v>
+      </c>
+      <c r="D73">
+        <v>560.07000000000005</v>
+      </c>
+      <c r="E73">
+        <v>5478.55</v>
+      </c>
+      <c r="F73">
+        <v>5600.72</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>-109.96</v>
+      </c>
+      <c r="B74">
+        <v>-125.23</v>
+      </c>
+      <c r="C74">
+        <v>159.96</v>
+      </c>
+      <c r="D74">
+        <v>175.23</v>
+      </c>
+      <c r="E74">
+        <v>1599.56</v>
+      </c>
+      <c r="F74">
+        <v>1752.27</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>510.07</v>
+      </c>
+      <c r="B75">
+        <v>491.75</v>
+      </c>
+      <c r="C75">
+        <v>-460.07</v>
+      </c>
+      <c r="D75">
+        <v>-441.75</v>
+      </c>
+      <c r="E75">
+        <v>-4600.72</v>
+      </c>
+      <c r="F75">
+        <v>-4417.47</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>125.23</v>
+      </c>
+      <c r="B76">
+        <v>109.96</v>
+      </c>
+      <c r="C76">
+        <v>-75.23</v>
+      </c>
+      <c r="D76">
+        <v>-59.96</v>
+      </c>
+      <c r="E76">
+        <v>-752.27</v>
+      </c>
+      <c r="F76">
+        <v>-599.55999999999995</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>-491.75</v>
+      </c>
+      <c r="B77">
+        <v>-513.13</v>
+      </c>
+      <c r="C77">
+        <v>541.75</v>
+      </c>
+      <c r="D77">
+        <v>563.13</v>
+      </c>
+      <c r="E77">
+        <v>5417.47</v>
+      </c>
+      <c r="F77">
+        <v>5631.27</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>-113.01</v>
+      </c>
+      <c r="B78">
+        <v>-140.5</v>
+      </c>
+      <c r="C78">
+        <v>163.01</v>
+      </c>
+      <c r="D78">
+        <v>190.5</v>
+      </c>
+      <c r="E78">
+        <v>1630.1</v>
+      </c>
+      <c r="F78">
+        <v>1904.99</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>503.96</v>
+      </c>
+      <c r="B79">
+        <v>479.53</v>
+      </c>
+      <c r="C79">
+        <v>-453.96</v>
+      </c>
+      <c r="D79">
+        <v>-429.53</v>
+      </c>
+      <c r="E79">
+        <v>-4539.6400000000003</v>
+      </c>
+      <c r="F79">
+        <v>-4295.29</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>116.06</v>
+      </c>
+      <c r="B80">
+        <v>103.85</v>
+      </c>
+      <c r="C80">
+        <v>-66.06</v>
+      </c>
+      <c r="D80">
+        <v>-53.85</v>
+      </c>
+      <c r="E80">
+        <v>-660.64</v>
+      </c>
+      <c r="F80">
+        <v>-538.47</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>-507.02</v>
+      </c>
+      <c r="B81">
+        <v>-510.07</v>
+      </c>
+      <c r="C81">
+        <v>557.02</v>
+      </c>
+      <c r="D81">
+        <v>560.07000000000005</v>
+      </c>
+      <c r="E81">
+        <v>5570.18</v>
+      </c>
+      <c r="F81">
+        <v>5600.72</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>-116.06</v>
+      </c>
+      <c r="B82">
+        <v>-134.38999999999999</v>
+      </c>
+      <c r="C82">
+        <v>166.06</v>
+      </c>
+      <c r="D82">
+        <v>184.39</v>
+      </c>
+      <c r="E82">
+        <v>1660.64</v>
+      </c>
+      <c r="F82">
+        <v>1843.9</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>503.96</v>
+      </c>
+      <c r="B83">
+        <v>482.58</v>
+      </c>
+      <c r="C83">
+        <v>-453.96</v>
+      </c>
+      <c r="D83">
+        <v>-432.58</v>
+      </c>
+      <c r="E83">
+        <v>-4539.6400000000003</v>
+      </c>
+      <c r="F83">
+        <v>-4325.84</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>119.12</v>
+      </c>
+      <c r="B84">
+        <v>116.06</v>
+      </c>
+      <c r="C84">
+        <v>-69.12</v>
+      </c>
+      <c r="D84">
+        <v>-66.06</v>
+      </c>
+      <c r="E84">
+        <v>-691.19</v>
+      </c>
+      <c r="F84">
+        <v>-660.64</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>-497.86</v>
+      </c>
+      <c r="B85">
+        <v>-503.96</v>
+      </c>
+      <c r="C85">
+        <v>547.86</v>
+      </c>
+      <c r="D85">
+        <v>553.96</v>
+      </c>
+      <c r="E85">
+        <v>5478.55</v>
+      </c>
+      <c r="F85">
+        <v>5539.64</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>-113.01</v>
+      </c>
+      <c r="B86">
+        <v>-134.38999999999999</v>
+      </c>
+      <c r="C86">
+        <v>163.01</v>
+      </c>
+      <c r="D86">
+        <v>184.39</v>
+      </c>
+      <c r="E86">
+        <v>1630.1</v>
+      </c>
+      <c r="F86">
+        <v>1843.9</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>503.96</v>
+      </c>
+      <c r="B87">
+        <v>476.47</v>
+      </c>
+      <c r="C87">
+        <v>-453.96</v>
+      </c>
+      <c r="D87">
+        <v>-426.47</v>
+      </c>
+      <c r="E87">
+        <v>-4539.6400000000003</v>
+      </c>
+      <c r="F87">
+        <v>-4264.75</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>122.17</v>
+      </c>
+      <c r="B88">
+        <v>113.01</v>
+      </c>
+      <c r="C88">
+        <v>-72.17</v>
+      </c>
+      <c r="D88">
+        <v>-63.01</v>
+      </c>
+      <c r="E88">
+        <v>-721.73</v>
+      </c>
+      <c r="F88">
+        <v>-630.1</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>-476.47</v>
+      </c>
+      <c r="B89">
+        <v>-491.75</v>
+      </c>
+      <c r="C89">
+        <v>526.47</v>
+      </c>
+      <c r="D89">
+        <v>541.75</v>
+      </c>
+      <c r="E89">
+        <v>5264.75</v>
+      </c>
+      <c r="F89">
+        <v>5417.47</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>-103.85</v>
+      </c>
+      <c r="B90">
+        <v>-122.17</v>
+      </c>
+      <c r="C90">
+        <v>153.85</v>
+      </c>
+      <c r="D90">
+        <v>172.17</v>
+      </c>
+      <c r="E90">
+        <v>1538.47</v>
+      </c>
+      <c r="F90">
+        <v>1721.73</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>507.02</v>
+      </c>
+      <c r="B91">
+        <v>476.47</v>
+      </c>
+      <c r="C91">
+        <v>-457.02</v>
+      </c>
+      <c r="D91">
+        <v>-426.47</v>
+      </c>
+      <c r="E91">
+        <v>-4570.18</v>
+      </c>
+      <c r="F91">
+        <v>-4264.75</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>125.23</v>
+      </c>
+      <c r="B92">
+        <v>106.9</v>
+      </c>
+      <c r="C92">
+        <v>-75.23</v>
+      </c>
+      <c r="D92">
+        <v>-56.9</v>
+      </c>
+      <c r="E92">
+        <v>-752.27</v>
+      </c>
+      <c r="F92">
+        <v>-569.01</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>-491.75</v>
+      </c>
+      <c r="B93">
+        <v>-503.96</v>
+      </c>
+      <c r="C93">
+        <v>541.75</v>
+      </c>
+      <c r="D93">
+        <v>553.96</v>
+      </c>
+      <c r="E93">
+        <v>5417.47</v>
+      </c>
+      <c r="F93">
+        <v>5539.64</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>-113.01</v>
+      </c>
+      <c r="B94">
+        <v>-131.34</v>
+      </c>
+      <c r="C94">
+        <v>163.01</v>
+      </c>
+      <c r="D94">
+        <v>181.34</v>
+      </c>
+      <c r="E94">
+        <v>1630.1</v>
+      </c>
+      <c r="F94">
+        <v>1813.36</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>485.64</v>
+      </c>
+      <c r="B95">
+        <v>464.26</v>
+      </c>
+      <c r="C95">
+        <v>-435.64</v>
+      </c>
+      <c r="D95">
+        <v>-414.26</v>
+      </c>
+      <c r="E95">
+        <v>-4356.38</v>
+      </c>
+      <c r="F95">
+        <v>-4142.58</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>109.96</v>
+      </c>
+      <c r="B96">
+        <v>100.79</v>
+      </c>
+      <c r="C96">
+        <v>-59.96</v>
+      </c>
+      <c r="D96">
+        <v>-50.79</v>
+      </c>
+      <c r="E96">
+        <v>-599.55999999999995</v>
+      </c>
+      <c r="F96">
+        <v>-507.93</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>-497.86</v>
+      </c>
+      <c r="B97">
+        <v>-507.02</v>
+      </c>
+      <c r="C97">
+        <v>547.86</v>
+      </c>
+      <c r="D97">
+        <v>557.02</v>
+      </c>
+      <c r="E97">
+        <v>5478.55</v>
+      </c>
+      <c r="F97">
+        <v>5570.18</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>-116.06</v>
+      </c>
+      <c r="B98">
+        <v>-131.34</v>
+      </c>
+      <c r="C98">
+        <v>166.06</v>
+      </c>
+      <c r="D98">
+        <v>181.34</v>
+      </c>
+      <c r="E98">
+        <v>1660.64</v>
+      </c>
+      <c r="F98">
+        <v>1813.36</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>494.8</v>
+      </c>
+      <c r="B99">
+        <v>476.47</v>
+      </c>
+      <c r="C99">
+        <v>-444.8</v>
+      </c>
+      <c r="D99">
+        <v>-426.47</v>
+      </c>
+      <c r="E99">
+        <v>-4448.01</v>
+      </c>
+      <c r="F99">
+        <v>-4264.75</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>119.12</v>
+      </c>
+      <c r="B100">
+        <v>113.01</v>
+      </c>
+      <c r="C100">
+        <v>-69.12</v>
+      </c>
+      <c r="D100">
+        <v>-63.01</v>
+      </c>
+      <c r="E100">
+        <v>-691.19</v>
+      </c>
+      <c r="F100">
+        <v>-630.1</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>-482.58</v>
+      </c>
+      <c r="B101">
+        <v>-491.75</v>
+      </c>
+      <c r="C101">
+        <v>532.58000000000004</v>
+      </c>
+      <c r="D101">
+        <v>541.75</v>
+      </c>
+      <c r="E101">
+        <v>5325.84</v>
+      </c>
+      <c r="F101">
+        <v>5417.47</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>-106.9</v>
+      </c>
+      <c r="B102">
+        <v>-128.28</v>
+      </c>
+      <c r="C102">
+        <v>156.9</v>
+      </c>
+      <c r="D102">
+        <v>178.28</v>
+      </c>
+      <c r="E102">
+        <v>1569.01</v>
+      </c>
+      <c r="F102">
+        <v>1782.82</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>500.91</v>
+      </c>
+      <c r="B103">
+        <v>473.42</v>
+      </c>
+      <c r="C103">
+        <v>-450.91</v>
+      </c>
+      <c r="D103">
+        <v>-423.42</v>
+      </c>
+      <c r="E103">
+        <v>-4509.1000000000004</v>
+      </c>
+      <c r="F103">
+        <v>-4234.21</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>119.12</v>
+      </c>
+      <c r="B104">
+        <v>106.9</v>
+      </c>
+      <c r="C104">
+        <v>-69.12</v>
+      </c>
+      <c r="D104">
+        <v>-56.9</v>
+      </c>
+      <c r="E104">
+        <v>-691.19</v>
+      </c>
+      <c r="F104">
+        <v>-569.01</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>-491.75</v>
+      </c>
+      <c r="B105">
+        <v>-503.96</v>
+      </c>
+      <c r="C105">
+        <v>541.75</v>
+      </c>
+      <c r="D105">
+        <v>553.96</v>
+      </c>
+      <c r="E105">
+        <v>5417.47</v>
+      </c>
+      <c r="F105">
+        <v>5539.64</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>-109.96</v>
+      </c>
+      <c r="B106">
+        <v>-131.34</v>
+      </c>
+      <c r="C106">
+        <v>159.96</v>
+      </c>
+      <c r="D106">
+        <v>181.34</v>
+      </c>
+      <c r="E106">
+        <v>1599.56</v>
+      </c>
+      <c r="F106">
+        <v>1813.36</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>488.69</v>
+      </c>
+      <c r="B107">
+        <v>464.26</v>
+      </c>
+      <c r="C107">
+        <v>-438.69</v>
+      </c>
+      <c r="D107">
+        <v>-414.26</v>
+      </c>
+      <c r="E107">
+        <v>-4386.92</v>
+      </c>
+      <c r="F107">
+        <v>-4142.58</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>122.17</v>
+      </c>
+      <c r="B108">
+        <v>109.96</v>
+      </c>
+      <c r="C108">
+        <v>-72.17</v>
+      </c>
+      <c r="D108">
+        <v>-59.96</v>
+      </c>
+      <c r="E108">
+        <v>-721.73</v>
+      </c>
+      <c r="F108">
+        <v>-599.55999999999995</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>-485.64</v>
+      </c>
+      <c r="B109">
+        <v>-497.86</v>
+      </c>
+      <c r="C109">
+        <v>535.64</v>
+      </c>
+      <c r="D109">
+        <v>547.86</v>
+      </c>
+      <c r="E109">
+        <v>5356.38</v>
+      </c>
+      <c r="F109">
+        <v>5478.55</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>-109.96</v>
+      </c>
+      <c r="B110">
+        <v>-125.23</v>
+      </c>
+      <c r="C110">
+        <v>159.96</v>
+      </c>
+      <c r="D110">
+        <v>175.23</v>
+      </c>
+      <c r="E110">
+        <v>1599.56</v>
+      </c>
+      <c r="F110">
+        <v>1752.27</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>497.86</v>
+      </c>
+      <c r="B111">
+        <v>476.47</v>
+      </c>
+      <c r="C111">
+        <v>-447.86</v>
+      </c>
+      <c r="D111">
+        <v>-426.47</v>
+      </c>
+      <c r="E111">
+        <v>-4478.55</v>
+      </c>
+      <c r="F111">
+        <v>-4264.75</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>125.23</v>
+      </c>
+      <c r="B112">
+        <v>106.9</v>
+      </c>
+      <c r="C112">
+        <v>-75.23</v>
+      </c>
+      <c r="D112">
+        <v>-56.9</v>
+      </c>
+      <c r="E112">
+        <v>-752.27</v>
+      </c>
+      <c r="F112">
+        <v>-569.01</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>-470.37</v>
+      </c>
+      <c r="B113">
+        <v>-482.58</v>
+      </c>
+      <c r="C113">
+        <v>520.37</v>
+      </c>
+      <c r="D113">
+        <v>532.58000000000004</v>
+      </c>
+      <c r="E113">
+        <v>5203.66</v>
+      </c>
+      <c r="F113">
+        <v>5325.84</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>-116.06</v>
+      </c>
+      <c r="B114">
+        <v>-128.28</v>
+      </c>
+      <c r="C114">
+        <v>166.06</v>
+      </c>
+      <c r="D114">
+        <v>178.28</v>
+      </c>
+      <c r="E114">
+        <v>1660.64</v>
+      </c>
+      <c r="F114">
+        <v>1782.82</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>494.8</v>
+      </c>
+      <c r="B115">
+        <v>473.42</v>
+      </c>
+      <c r="C115">
+        <v>-444.8</v>
+      </c>
+      <c r="D115">
+        <v>-423.42</v>
+      </c>
+      <c r="E115">
+        <v>-4448.01</v>
+      </c>
+      <c r="F115">
+        <v>-4234.21</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>125.23</v>
+      </c>
+      <c r="B116">
+        <v>106.9</v>
+      </c>
+      <c r="C116">
+        <v>-75.23</v>
+      </c>
+      <c r="D116">
+        <v>-56.9</v>
+      </c>
+      <c r="E116">
+        <v>-752.27</v>
+      </c>
+      <c r="F116">
+        <v>-569.01</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>-488.69</v>
+      </c>
+      <c r="B117">
+        <v>-494.8</v>
+      </c>
+      <c r="C117">
+        <v>538.69000000000005</v>
+      </c>
+      <c r="D117">
+        <v>544.79999999999995</v>
+      </c>
+      <c r="E117">
+        <v>5386.92</v>
+      </c>
+      <c r="F117">
+        <v>5448.01</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>-122.17</v>
+      </c>
+      <c r="B118">
+        <v>-131.34</v>
+      </c>
+      <c r="C118">
+        <v>172.17</v>
+      </c>
+      <c r="D118">
+        <v>181.34</v>
+      </c>
+      <c r="E118">
+        <v>1721.73</v>
+      </c>
+      <c r="F118">
+        <v>1813.36</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>488.69</v>
+      </c>
+      <c r="B119">
+        <v>470.37</v>
+      </c>
+      <c r="C119">
+        <v>-438.69</v>
+      </c>
+      <c r="D119">
+        <v>-420.37</v>
+      </c>
+      <c r="E119">
+        <v>-4386.92</v>
+      </c>
+      <c r="F119">
+        <v>-4203.66</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119.12</v>
+      </c>
+      <c r="B120">
+        <v>106.9</v>
+      </c>
+      <c r="C120">
+        <v>-69.12</v>
+      </c>
+      <c r="D120">
+        <v>-56.9</v>
+      </c>
+      <c r="E120">
+        <v>-691.19</v>
+      </c>
+      <c r="F120">
+        <v>-569.01</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>-488.69</v>
+      </c>
+      <c r="B121">
+        <v>-497.86</v>
+      </c>
+      <c r="C121">
+        <v>538.69000000000005</v>
+      </c>
+      <c r="D121">
+        <v>547.86</v>
+      </c>
+      <c r="E121">
+        <v>5386.92</v>
+      </c>
+      <c r="F121">
+        <v>5478.55</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>-122.17</v>
+      </c>
+      <c r="B122">
+        <v>-134.38999999999999</v>
+      </c>
+      <c r="C122">
+        <v>172.17</v>
+      </c>
+      <c r="D122">
+        <v>184.39</v>
+      </c>
+      <c r="E122">
+        <v>1721.73</v>
+      </c>
+      <c r="F122">
+        <v>1843.9</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>491.75</v>
+      </c>
+      <c r="B123">
+        <v>470.37</v>
+      </c>
+      <c r="C123">
+        <v>-441.75</v>
+      </c>
+      <c r="D123">
+        <v>-420.37</v>
+      </c>
+      <c r="E123">
+        <v>-4417.47</v>
+      </c>
+      <c r="F123">
+        <v>-4203.66</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="1"/>
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>125.23</v>
+      </c>
+      <c r="B124">
+        <v>109.96</v>
+      </c>
+      <c r="C124">
+        <v>-75.23</v>
+      </c>
+      <c r="D124">
+        <v>-59.96</v>
+      </c>
+      <c r="E124">
+        <v>-752.27</v>
+      </c>
+      <c r="F124">
+        <v>-599.55999999999995</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="1"/>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>-479.53</v>
+      </c>
+      <c r="B125">
+        <v>-488.69</v>
+      </c>
+      <c r="C125">
+        <v>529.53</v>
+      </c>
+      <c r="D125">
+        <v>538.69000000000005</v>
+      </c>
+      <c r="E125">
+        <v>5295.29</v>
+      </c>
+      <c r="F125">
+        <v>5386.92</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>-116.06</v>
+      </c>
+      <c r="B126">
+        <v>-122.17</v>
+      </c>
+      <c r="C126">
+        <v>166.06</v>
+      </c>
+      <c r="D126">
+        <v>172.17</v>
+      </c>
+      <c r="E126">
+        <v>1660.64</v>
+      </c>
+      <c r="F126">
+        <v>1721.73</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>488.69</v>
+      </c>
+      <c r="B127">
+        <v>470.37</v>
+      </c>
+      <c r="C127">
+        <v>-438.69</v>
+      </c>
+      <c r="D127">
+        <v>-420.37</v>
+      </c>
+      <c r="E127">
+        <v>-4386.92</v>
+      </c>
+      <c r="F127">
+        <v>-4203.66</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>122.17</v>
+      </c>
+      <c r="B128">
+        <v>106.9</v>
+      </c>
+      <c r="C128">
+        <v>-72.17</v>
+      </c>
+      <c r="D128">
+        <v>-56.9</v>
+      </c>
+      <c r="E128">
+        <v>-721.73</v>
+      </c>
+      <c r="F128">
+        <v>-569.01</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="1"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>-479.53</v>
+      </c>
+      <c r="B129">
+        <v>-491.75</v>
+      </c>
+      <c r="C129">
+        <v>529.53</v>
+      </c>
+      <c r="D129">
+        <v>541.75</v>
+      </c>
+      <c r="E129">
+        <v>5295.29</v>
+      </c>
+      <c r="F129">
+        <v>5417.47</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="1"/>
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>-125.23</v>
+      </c>
+      <c r="B130">
+        <v>-137.44</v>
+      </c>
+      <c r="C130">
+        <v>175.23</v>
+      </c>
+      <c r="D130">
+        <v>187.44</v>
+      </c>
+      <c r="E130">
+        <v>1752.27</v>
+      </c>
+      <c r="F130">
+        <v>1874.45</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="1"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>476.47</v>
+      </c>
+      <c r="B131">
+        <v>455.09</v>
+      </c>
+      <c r="C131">
+        <v>-426.47</v>
+      </c>
+      <c r="D131">
+        <v>-405.09</v>
+      </c>
+      <c r="E131">
+        <v>-4264.75</v>
+      </c>
+      <c r="F131">
+        <v>-4050.95</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="1"/>
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>119.12</v>
+      </c>
+      <c r="B132">
+        <v>103.85</v>
+      </c>
+      <c r="C132">
+        <v>-69.12</v>
+      </c>
+      <c r="D132">
+        <v>-53.85</v>
+      </c>
+      <c r="E132">
+        <v>-691.19</v>
+      </c>
+      <c r="F132">
+        <v>-538.47</v>
+      </c>
+      <c r="G132">
+        <f t="shared" ref="G132:G195" si="2">G131+50</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>-476.47</v>
+      </c>
+      <c r="B133">
+        <v>-494.8</v>
+      </c>
+      <c r="C133">
+        <v>526.47</v>
+      </c>
+      <c r="D133">
+        <v>544.79999999999995</v>
+      </c>
+      <c r="E133">
+        <v>5264.75</v>
+      </c>
+      <c r="F133">
+        <v>5448.01</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>-119.12</v>
+      </c>
+      <c r="B134">
+        <v>-134.38999999999999</v>
+      </c>
+      <c r="C134">
+        <v>169.12</v>
+      </c>
+      <c r="D134">
+        <v>184.39</v>
+      </c>
+      <c r="E134">
+        <v>1691.19</v>
+      </c>
+      <c r="F134">
+        <v>1843.9</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>482.58</v>
+      </c>
+      <c r="B135">
+        <v>458.15</v>
+      </c>
+      <c r="C135">
+        <v>-432.58</v>
+      </c>
+      <c r="D135">
+        <v>-408.15</v>
+      </c>
+      <c r="E135">
+        <v>-4325.84</v>
+      </c>
+      <c r="F135">
+        <v>-4081.49</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>131.34</v>
+      </c>
+      <c r="B136">
+        <v>103.85</v>
+      </c>
+      <c r="C136">
+        <v>-81.34</v>
+      </c>
+      <c r="D136">
+        <v>-53.85</v>
+      </c>
+      <c r="E136">
+        <v>-813.36</v>
+      </c>
+      <c r="F136">
+        <v>-538.47</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="2"/>
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>-470.37</v>
+      </c>
+      <c r="B137">
+        <v>-485.64</v>
+      </c>
+      <c r="C137">
+        <v>520.37</v>
+      </c>
+      <c r="D137">
+        <v>535.64</v>
+      </c>
+      <c r="E137">
+        <v>5203.66</v>
+      </c>
+      <c r="F137">
+        <v>5356.38</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="2"/>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>-113.01</v>
+      </c>
+      <c r="B138">
+        <v>-125.23</v>
+      </c>
+      <c r="C138">
+        <v>163.01</v>
+      </c>
+      <c r="D138">
+        <v>175.23</v>
+      </c>
+      <c r="E138">
+        <v>1630.1</v>
+      </c>
+      <c r="F138">
+        <v>1752.27</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="2"/>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>488.69</v>
+      </c>
+      <c r="B139">
+        <v>467.31</v>
+      </c>
+      <c r="C139">
+        <v>-438.69</v>
+      </c>
+      <c r="D139">
+        <v>-417.31</v>
+      </c>
+      <c r="E139">
+        <v>-4386.92</v>
+      </c>
+      <c r="F139">
+        <v>-4173.12</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="2"/>
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>122.17</v>
+      </c>
+      <c r="B140">
+        <v>109.96</v>
+      </c>
+      <c r="C140">
+        <v>-72.17</v>
+      </c>
+      <c r="D140">
+        <v>-59.96</v>
+      </c>
+      <c r="E140">
+        <v>-721.73</v>
+      </c>
+      <c r="F140">
+        <v>-599.55999999999995</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="2"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>-479.53</v>
+      </c>
+      <c r="B141">
+        <v>-488.69</v>
+      </c>
+      <c r="C141">
+        <v>529.53</v>
+      </c>
+      <c r="D141">
+        <v>538.69000000000005</v>
+      </c>
+      <c r="E141">
+        <v>5295.29</v>
+      </c>
+      <c r="F141">
+        <v>5386.92</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="2"/>
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>-122.17</v>
+      </c>
+      <c r="B142">
+        <v>-131.34</v>
+      </c>
+      <c r="C142">
+        <v>172.17</v>
+      </c>
+      <c r="D142">
+        <v>181.34</v>
+      </c>
+      <c r="E142">
+        <v>1721.73</v>
+      </c>
+      <c r="F142">
+        <v>1813.36</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>476.47</v>
+      </c>
+      <c r="B143">
+        <v>461.2</v>
+      </c>
+      <c r="C143">
+        <v>-426.47</v>
+      </c>
+      <c r="D143">
+        <v>-411.2</v>
+      </c>
+      <c r="E143">
+        <v>-4264.75</v>
+      </c>
+      <c r="F143">
+        <v>-4112.03</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>122.17</v>
+      </c>
+      <c r="B144">
+        <v>106.9</v>
+      </c>
+      <c r="C144">
+        <v>-72.17</v>
+      </c>
+      <c r="D144">
+        <v>-56.9</v>
+      </c>
+      <c r="E144">
+        <v>-721.73</v>
+      </c>
+      <c r="F144">
+        <v>-569.01</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>-479.53</v>
+      </c>
+      <c r="B145">
+        <v>-491.75</v>
+      </c>
+      <c r="C145">
+        <v>529.53</v>
+      </c>
+      <c r="D145">
+        <v>541.75</v>
+      </c>
+      <c r="E145">
+        <v>5295.29</v>
+      </c>
+      <c r="F145">
+        <v>5417.47</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>-116.06</v>
+      </c>
+      <c r="B146">
+        <v>-131.34</v>
+      </c>
+      <c r="C146">
+        <v>166.06</v>
+      </c>
+      <c r="D146">
+        <v>181.34</v>
+      </c>
+      <c r="E146">
+        <v>1660.64</v>
+      </c>
+      <c r="F146">
+        <v>1813.36</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>485.64</v>
+      </c>
+      <c r="B147">
+        <v>467.31</v>
+      </c>
+      <c r="C147">
+        <v>-435.64</v>
+      </c>
+      <c r="D147">
+        <v>-417.31</v>
+      </c>
+      <c r="E147">
+        <v>-4356.38</v>
+      </c>
+      <c r="F147">
+        <v>-4173.12</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>119.12</v>
+      </c>
+      <c r="B148">
+        <v>106.9</v>
+      </c>
+      <c r="C148">
+        <v>-69.12</v>
+      </c>
+      <c r="D148">
+        <v>-56.9</v>
+      </c>
+      <c r="E148">
+        <v>-691.19</v>
+      </c>
+      <c r="F148">
+        <v>-569.01</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>-473.42</v>
+      </c>
+      <c r="B149">
+        <v>-491.75</v>
+      </c>
+      <c r="C149">
+        <v>523.41999999999996</v>
+      </c>
+      <c r="D149">
+        <v>541.75</v>
+      </c>
+      <c r="E149">
+        <v>5234.21</v>
+      </c>
+      <c r="F149">
+        <v>5417.47</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>-119.12</v>
+      </c>
+      <c r="B150">
+        <v>-128.28</v>
+      </c>
+      <c r="C150">
+        <v>169.12</v>
+      </c>
+      <c r="D150">
+        <v>178.28</v>
+      </c>
+      <c r="E150">
+        <v>1691.19</v>
+      </c>
+      <c r="F150">
+        <v>1782.82</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>479.53</v>
+      </c>
+      <c r="B151">
+        <v>464.26</v>
+      </c>
+      <c r="C151">
+        <v>-429.53</v>
+      </c>
+      <c r="D151">
+        <v>-414.26</v>
+      </c>
+      <c r="E151">
+        <v>-4295.29</v>
+      </c>
+      <c r="F151">
+        <v>-4142.58</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>122.17</v>
+      </c>
+      <c r="B152">
+        <v>103.85</v>
+      </c>
+      <c r="C152">
+        <v>-72.17</v>
+      </c>
+      <c r="D152">
+        <v>-53.85</v>
+      </c>
+      <c r="E152">
+        <v>-721.73</v>
+      </c>
+      <c r="F152">
+        <v>-538.47</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>-458.15</v>
+      </c>
+      <c r="B153">
+        <v>-476.47</v>
+      </c>
+      <c r="C153">
+        <v>508.15</v>
+      </c>
+      <c r="D153">
+        <v>526.47</v>
+      </c>
+      <c r="E153">
+        <v>5081.49</v>
+      </c>
+      <c r="F153">
+        <v>5264.75</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>-109.96</v>
+      </c>
+      <c r="B154">
+        <v>-131.34</v>
+      </c>
+      <c r="C154">
+        <v>159.96</v>
+      </c>
+      <c r="D154">
+        <v>181.34</v>
+      </c>
+      <c r="E154">
+        <v>1599.56</v>
+      </c>
+      <c r="F154">
+        <v>1813.36</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="2"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>482.58</v>
+      </c>
+      <c r="B155">
+        <v>464.26</v>
+      </c>
+      <c r="C155">
+        <v>-432.58</v>
+      </c>
+      <c r="D155">
+        <v>-414.26</v>
+      </c>
+      <c r="E155">
+        <v>-4325.84</v>
+      </c>
+      <c r="F155">
+        <v>-4142.58</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="2"/>
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>119.12</v>
+      </c>
+      <c r="B156">
+        <v>109.96</v>
+      </c>
+      <c r="C156">
+        <v>-69.12</v>
+      </c>
+      <c r="D156">
+        <v>-59.96</v>
+      </c>
+      <c r="E156">
+        <v>-691.19</v>
+      </c>
+      <c r="F156">
+        <v>-599.55999999999995</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>-479.53</v>
+      </c>
+      <c r="B157">
+        <v>-485.64</v>
+      </c>
+      <c r="C157">
+        <v>529.53</v>
+      </c>
+      <c r="D157">
+        <v>535.64</v>
+      </c>
+      <c r="E157">
+        <v>5295.29</v>
+      </c>
+      <c r="F157">
+        <v>5356.38</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="2"/>
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>-109.96</v>
+      </c>
+      <c r="B158">
+        <v>-128.28</v>
+      </c>
+      <c r="C158">
+        <v>159.96</v>
+      </c>
+      <c r="D158">
+        <v>178.28</v>
+      </c>
+      <c r="E158">
+        <v>1599.56</v>
+      </c>
+      <c r="F158">
+        <v>1782.82</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="2"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>470.37</v>
+      </c>
+      <c r="B159">
+        <v>452.04</v>
+      </c>
+      <c r="C159">
+        <v>-420.37</v>
+      </c>
+      <c r="D159">
+        <v>-402.04</v>
+      </c>
+      <c r="E159">
+        <v>-4203.66</v>
+      </c>
+      <c r="F159">
+        <v>-4020.4</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="2"/>
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>125.23</v>
+      </c>
+      <c r="B160">
+        <v>106.9</v>
+      </c>
+      <c r="C160">
+        <v>-75.23</v>
+      </c>
+      <c r="D160">
+        <v>-56.9</v>
+      </c>
+      <c r="E160">
+        <v>-752.27</v>
+      </c>
+      <c r="F160">
+        <v>-569.01</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="2"/>
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>-473.42</v>
+      </c>
+      <c r="B161">
+        <v>-485.64</v>
+      </c>
+      <c r="C161">
+        <v>523.41999999999996</v>
+      </c>
+      <c r="D161">
+        <v>535.64</v>
+      </c>
+      <c r="E161">
+        <v>5234.21</v>
+      </c>
+      <c r="F161">
+        <v>5356.38</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="2"/>
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>-122.17</v>
+      </c>
+      <c r="B162">
+        <v>-128.28</v>
+      </c>
+      <c r="C162">
+        <v>172.17</v>
+      </c>
+      <c r="D162">
+        <v>178.28</v>
+      </c>
+      <c r="E162">
+        <v>1721.73</v>
+      </c>
+      <c r="F162">
+        <v>1782.82</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>476.47</v>
+      </c>
+      <c r="B163">
+        <v>467.31</v>
+      </c>
+      <c r="C163">
+        <v>-426.47</v>
+      </c>
+      <c r="D163">
+        <v>-417.31</v>
+      </c>
+      <c r="E163">
+        <v>-4264.75</v>
+      </c>
+      <c r="F163">
+        <v>-4173.12</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="2"/>
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>119.12</v>
+      </c>
+      <c r="B164">
+        <v>100.79</v>
+      </c>
+      <c r="C164">
+        <v>-69.12</v>
+      </c>
+      <c r="D164">
+        <v>-50.79</v>
+      </c>
+      <c r="E164">
+        <v>-691.19</v>
+      </c>
+      <c r="F164">
+        <v>-507.93</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="2"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>-464.26</v>
+      </c>
+      <c r="B165">
+        <v>-476.47</v>
+      </c>
+      <c r="C165">
+        <v>514.26</v>
+      </c>
+      <c r="D165">
+        <v>526.47</v>
+      </c>
+      <c r="E165">
+        <v>5142.58</v>
+      </c>
+      <c r="F165">
+        <v>5264.75</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="2"/>
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>-116.06</v>
+      </c>
+      <c r="B166">
+        <v>-125.23</v>
+      </c>
+      <c r="C166">
+        <v>166.06</v>
+      </c>
+      <c r="D166">
+        <v>175.23</v>
+      </c>
+      <c r="E166">
+        <v>1660.64</v>
+      </c>
+      <c r="F166">
+        <v>1752.27</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="2"/>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>482.58</v>
+      </c>
+      <c r="B167">
+        <v>467.31</v>
+      </c>
+      <c r="C167">
+        <v>-432.58</v>
+      </c>
+      <c r="D167">
+        <v>-417.31</v>
+      </c>
+      <c r="E167">
+        <v>-4325.84</v>
+      </c>
+      <c r="F167">
+        <v>-4173.12</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="2"/>
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>122.17</v>
+      </c>
+      <c r="B168">
+        <v>103.85</v>
+      </c>
+      <c r="C168">
+        <v>-72.17</v>
+      </c>
+      <c r="D168">
+        <v>-53.85</v>
+      </c>
+      <c r="E168">
+        <v>-721.73</v>
+      </c>
+      <c r="F168">
+        <v>-538.47</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="2"/>
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>-473.42</v>
+      </c>
+      <c r="B169">
+        <v>-488.69</v>
+      </c>
+      <c r="C169">
+        <v>523.41999999999996</v>
+      </c>
+      <c r="D169">
+        <v>538.69000000000005</v>
+      </c>
+      <c r="E169">
+        <v>5234.21</v>
+      </c>
+      <c r="F169">
+        <v>5386.92</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="2"/>
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>-122.17</v>
+      </c>
+      <c r="B170">
+        <v>-128.28</v>
+      </c>
+      <c r="C170">
+        <v>172.17</v>
+      </c>
+      <c r="D170">
+        <v>178.28</v>
+      </c>
+      <c r="E170">
+        <v>1721.73</v>
+      </c>
+      <c r="F170">
+        <v>1782.82</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="2"/>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>461.2</v>
+      </c>
+      <c r="B171">
+        <v>455.09</v>
+      </c>
+      <c r="C171">
+        <v>-411.2</v>
+      </c>
+      <c r="D171">
+        <v>-405.09</v>
+      </c>
+      <c r="E171">
+        <v>-4112.03</v>
+      </c>
+      <c r="F171">
+        <v>-4050.95</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="2"/>
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>116.06</v>
+      </c>
+      <c r="B172">
+        <v>100.79</v>
+      </c>
+      <c r="C172">
+        <v>-66.06</v>
+      </c>
+      <c r="D172">
+        <v>-50.79</v>
+      </c>
+      <c r="E172">
+        <v>-660.64</v>
+      </c>
+      <c r="F172">
+        <v>-507.93</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="2"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>-479.53</v>
+      </c>
+      <c r="B173">
+        <v>-491.75</v>
+      </c>
+      <c r="C173">
+        <v>529.53</v>
+      </c>
+      <c r="D173">
+        <v>541.75</v>
+      </c>
+      <c r="E173">
+        <v>5295.29</v>
+      </c>
+      <c r="F173">
+        <v>5417.47</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="2"/>
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>-122.17</v>
+      </c>
+      <c r="B174">
+        <v>-131.34</v>
+      </c>
+      <c r="C174">
+        <v>172.17</v>
+      </c>
+      <c r="D174">
+        <v>181.34</v>
+      </c>
+      <c r="E174">
+        <v>1721.73</v>
+      </c>
+      <c r="F174">
+        <v>1813.36</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="2"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>476.47</v>
+      </c>
+      <c r="B175">
+        <v>461.2</v>
+      </c>
+      <c r="C175">
+        <v>-426.47</v>
+      </c>
+      <c r="D175">
+        <v>-411.2</v>
+      </c>
+      <c r="E175">
+        <v>-4264.75</v>
+      </c>
+      <c r="F175">
+        <v>-4112.03</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="2"/>
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>128.28</v>
+      </c>
+      <c r="B176">
+        <v>119.12</v>
+      </c>
+      <c r="C176">
+        <v>-78.28</v>
+      </c>
+      <c r="D176">
+        <v>-69.12</v>
+      </c>
+      <c r="E176">
+        <v>-782.82</v>
+      </c>
+      <c r="F176">
+        <v>-691.19</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="2"/>
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>-461.2</v>
+      </c>
+      <c r="B177">
+        <v>-470.37</v>
+      </c>
+      <c r="C177">
+        <v>511.2</v>
+      </c>
+      <c r="D177">
+        <v>520.37</v>
+      </c>
+      <c r="E177">
+        <v>5112.03</v>
+      </c>
+      <c r="F177">
+        <v>5203.66</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="2"/>
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>-119.12</v>
+      </c>
+      <c r="B178">
+        <v>-131.34</v>
+      </c>
+      <c r="C178">
+        <v>169.12</v>
+      </c>
+      <c r="D178">
+        <v>181.34</v>
+      </c>
+      <c r="E178">
+        <v>1691.19</v>
+      </c>
+      <c r="F178">
+        <v>1813.36</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="2"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>476.47</v>
+      </c>
+      <c r="B179">
+        <v>458.15</v>
+      </c>
+      <c r="C179">
+        <v>-426.47</v>
+      </c>
+      <c r="D179">
+        <v>-408.15</v>
+      </c>
+      <c r="E179">
+        <v>-4264.75</v>
+      </c>
+      <c r="F179">
+        <v>-4081.49</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="2"/>
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>122.17</v>
+      </c>
+      <c r="B180">
+        <v>109.96</v>
+      </c>
+      <c r="C180">
+        <v>-72.17</v>
+      </c>
+      <c r="D180">
+        <v>-59.96</v>
+      </c>
+      <c r="E180">
+        <v>-721.73</v>
+      </c>
+      <c r="F180">
+        <v>-599.55999999999995</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="2"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>-473.42</v>
+      </c>
+      <c r="B181">
+        <v>-482.58</v>
+      </c>
+      <c r="C181">
+        <v>523.41999999999996</v>
+      </c>
+      <c r="D181">
+        <v>532.58000000000004</v>
+      </c>
+      <c r="E181">
+        <v>5234.21</v>
+      </c>
+      <c r="F181">
+        <v>5325.84</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="2"/>
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>-128.28</v>
+      </c>
+      <c r="B182">
+        <v>-140.5</v>
+      </c>
+      <c r="C182">
+        <v>178.28</v>
+      </c>
+      <c r="D182">
+        <v>190.5</v>
+      </c>
+      <c r="E182">
+        <v>1782.82</v>
+      </c>
+      <c r="F182">
+        <v>1904.99</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>467.31</v>
+      </c>
+      <c r="B183">
+        <v>448.99</v>
+      </c>
+      <c r="C183">
+        <v>-417.31</v>
+      </c>
+      <c r="D183">
+        <v>-398.99</v>
+      </c>
+      <c r="E183">
+        <v>-4173.12</v>
+      </c>
+      <c r="F183">
+        <v>-3989.86</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="2"/>
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>119.12</v>
+      </c>
+      <c r="B184">
+        <v>106.9</v>
+      </c>
+      <c r="C184">
+        <v>-69.12</v>
+      </c>
+      <c r="D184">
+        <v>-56.9</v>
+      </c>
+      <c r="E184">
+        <v>-691.19</v>
+      </c>
+      <c r="F184">
+        <v>-569.01</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="2"/>
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>-467.31</v>
+      </c>
+      <c r="B185">
+        <v>-485.64</v>
+      </c>
+      <c r="C185">
+        <v>517.30999999999995</v>
+      </c>
+      <c r="D185">
+        <v>535.64</v>
+      </c>
+      <c r="E185">
+        <v>5173.12</v>
+      </c>
+      <c r="F185">
+        <v>5356.38</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="2"/>
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>-122.17</v>
+      </c>
+      <c r="B186">
+        <v>-137.44</v>
+      </c>
+      <c r="C186">
+        <v>172.17</v>
+      </c>
+      <c r="D186">
+        <v>187.44</v>
+      </c>
+      <c r="E186">
+        <v>1721.73</v>
+      </c>
+      <c r="F186">
+        <v>1874.45</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="2"/>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>473.42</v>
+      </c>
+      <c r="B187">
+        <v>461.2</v>
+      </c>
+      <c r="C187">
+        <v>-423.42</v>
+      </c>
+      <c r="D187">
+        <v>-411.2</v>
+      </c>
+      <c r="E187">
+        <v>-4234.21</v>
+      </c>
+      <c r="F187">
+        <v>-4112.03</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="2"/>
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>128.28</v>
+      </c>
+      <c r="B188">
+        <v>113.01</v>
+      </c>
+      <c r="C188">
+        <v>-78.28</v>
+      </c>
+      <c r="D188">
+        <v>-63.01</v>
+      </c>
+      <c r="E188">
+        <v>-782.82</v>
+      </c>
+      <c r="F188">
+        <v>-630.1</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="2"/>
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>-461.2</v>
+      </c>
+      <c r="B189">
+        <v>-473.42</v>
+      </c>
+      <c r="C189">
+        <v>511.2</v>
+      </c>
+      <c r="D189">
+        <v>523.41999999999996</v>
+      </c>
+      <c r="E189">
+        <v>5112.03</v>
+      </c>
+      <c r="F189">
+        <v>5234.21</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="2"/>
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>-113.01</v>
+      </c>
+      <c r="B190">
+        <v>-134.38999999999999</v>
+      </c>
+      <c r="C190">
+        <v>163.01</v>
+      </c>
+      <c r="D190">
+        <v>184.39</v>
+      </c>
+      <c r="E190">
+        <v>1630.1</v>
+      </c>
+      <c r="F190">
+        <v>1843.9</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="2"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>476.47</v>
+      </c>
+      <c r="B191">
+        <v>458.15</v>
+      </c>
+      <c r="C191">
+        <v>-426.47</v>
+      </c>
+      <c r="D191">
+        <v>-408.15</v>
+      </c>
+      <c r="E191">
+        <v>-4264.75</v>
+      </c>
+      <c r="F191">
+        <v>-4081.49</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="2"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>122.17</v>
+      </c>
+      <c r="B192">
+        <v>113.01</v>
+      </c>
+      <c r="C192">
+        <v>-72.17</v>
+      </c>
+      <c r="D192">
+        <v>-63.01</v>
+      </c>
+      <c r="E192">
+        <v>-721.73</v>
+      </c>
+      <c r="F192">
+        <v>-630.1</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="2"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>-470.37</v>
+      </c>
+      <c r="B193">
+        <v>-473.42</v>
+      </c>
+      <c r="C193">
+        <v>520.37</v>
+      </c>
+      <c r="D193">
+        <v>523.41999999999996</v>
+      </c>
+      <c r="E193">
+        <v>5203.66</v>
+      </c>
+      <c r="F193">
+        <v>5234.21</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="2"/>
+        <v>9550</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>-125.23</v>
+      </c>
+      <c r="B194">
+        <v>-140.5</v>
+      </c>
+      <c r="C194">
+        <v>175.23</v>
+      </c>
+      <c r="D194">
+        <v>190.5</v>
+      </c>
+      <c r="E194">
+        <v>1752.27</v>
+      </c>
+      <c r="F194">
+        <v>1904.99</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>461.2</v>
+      </c>
+      <c r="B195">
+        <v>448.99</v>
+      </c>
+      <c r="C195">
+        <v>-411.2</v>
+      </c>
+      <c r="D195">
+        <v>-398.99</v>
+      </c>
+      <c r="E195">
+        <v>-4112.03</v>
+      </c>
+      <c r="F195">
+        <v>-3989.86</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="2"/>
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>113.01</v>
+      </c>
+      <c r="B196">
+        <v>109.96</v>
+      </c>
+      <c r="C196">
+        <v>-63.01</v>
+      </c>
+      <c r="D196">
+        <v>-59.96</v>
+      </c>
+      <c r="E196">
+        <v>-630.1</v>
+      </c>
+      <c r="F196">
+        <v>-599.55999999999995</v>
+      </c>
+      <c r="G196">
+        <f t="shared" ref="G196:G200" si="3">G195+50</f>
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>-470.37</v>
+      </c>
+      <c r="B197">
+        <v>-476.47</v>
+      </c>
+      <c r="C197">
+        <v>520.37</v>
+      </c>
+      <c r="D197">
+        <v>526.47</v>
+      </c>
+      <c r="E197">
+        <v>5203.66</v>
+      </c>
+      <c r="F197">
+        <v>5264.75</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="3"/>
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>-125.23</v>
+      </c>
+      <c r="B198">
+        <v>-128.28</v>
+      </c>
+      <c r="C198">
+        <v>175.23</v>
+      </c>
+      <c r="D198">
+        <v>178.28</v>
+      </c>
+      <c r="E198">
+        <v>1752.27</v>
+      </c>
+      <c r="F198">
+        <v>1782.82</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="3"/>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>470.37</v>
+      </c>
+      <c r="B199">
+        <v>464.26</v>
+      </c>
+      <c r="C199">
+        <v>-420.37</v>
+      </c>
+      <c r="D199">
+        <v>-414.26</v>
+      </c>
+      <c r="E199">
+        <v>-4203.66</v>
+      </c>
+      <c r="F199">
+        <v>-4142.58</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="3"/>
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>134.38999999999999</v>
+      </c>
+      <c r="B200">
+        <v>125.23</v>
+      </c>
+      <c r="C200">
+        <v>-84.39</v>
+      </c>
+      <c r="D200">
+        <v>-75.23</v>
+      </c>
+      <c r="E200">
+        <v>-843.9</v>
+      </c>
+      <c r="F200">
+        <v>-752.27</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="3"/>
+        <v>9900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987B675-B009-BA40-81ED-1A7AFE5872B7}">
+  <dimension ref="A1:G200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>21.38</v>
+      </c>
+      <c r="B3">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="C3">
+        <v>28.62</v>
+      </c>
+      <c r="D3">
+        <v>31.67</v>
+      </c>
+      <c r="E3">
+        <v>16.45</v>
+      </c>
+      <c r="F3">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="G3">
+        <f>G2+50</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30.54</v>
+      </c>
+      <c r="B4">
+        <v>33.6</v>
+      </c>
+      <c r="C4">
+        <v>19.46</v>
+      </c>
+      <c r="D4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E4">
+        <v>15.64</v>
+      </c>
+      <c r="F4">
+        <v>14.73</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="0">G3+50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>27.49</v>
+      </c>
+      <c r="B5">
+        <v>27.49</v>
+      </c>
+      <c r="C5">
+        <v>22.51</v>
+      </c>
+      <c r="D5">
+        <v>22.51</v>
+      </c>
+      <c r="E5">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="F5">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>33.6</v>
+      </c>
+      <c r="B6">
+        <v>30.54</v>
+      </c>
+      <c r="C6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D6">
+        <v>19.46</v>
+      </c>
+      <c r="E6">
+        <v>18.62</v>
+      </c>
+      <c r="F6">
+        <v>19.84</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>36.65</v>
+      </c>
+      <c r="B7">
+        <v>36.65</v>
+      </c>
+      <c r="C7">
+        <v>13.35</v>
+      </c>
+      <c r="D7">
+        <v>13.35</v>
+      </c>
+      <c r="E7">
+        <v>19.04</v>
+      </c>
+      <c r="F7">
+        <v>19.34</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>39.71</v>
+      </c>
+      <c r="B8">
+        <v>39.71</v>
+      </c>
+      <c r="C8">
+        <v>10.29</v>
+      </c>
+      <c r="D8">
+        <v>10.29</v>
+      </c>
+      <c r="E8">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="F8">
+        <v>19.46</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>42.76</v>
+      </c>
+      <c r="B9">
+        <v>39.71</v>
+      </c>
+      <c r="C9">
+        <v>7.24</v>
+      </c>
+      <c r="D9">
+        <v>10.29</v>
+      </c>
+      <c r="E9">
+        <v>18.96</v>
+      </c>
+      <c r="F9">
+        <v>20.49</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>39.71</v>
+      </c>
+      <c r="B10">
+        <v>42.76</v>
+      </c>
+      <c r="C10">
+        <v>10.29</v>
+      </c>
+      <c r="D10">
+        <v>7.24</v>
+      </c>
+      <c r="E10">
+        <v>20.9</v>
+      </c>
+      <c r="F10">
+        <v>20.29</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>42.76</v>
+      </c>
+      <c r="B11">
+        <v>45.81</v>
+      </c>
+      <c r="C11">
+        <v>7.24</v>
+      </c>
+      <c r="D11">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E11">
+        <v>20.71</v>
+      </c>
+      <c r="F11">
+        <v>19.8</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>45.81</v>
+      </c>
+      <c r="B12">
+        <v>42.76</v>
+      </c>
+      <c r="C12">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D12">
+        <v>7.24</v>
+      </c>
+      <c r="E12">
+        <v>20.21</v>
+      </c>
+      <c r="F12">
+        <v>21.44</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>45.81</v>
+      </c>
+      <c r="B13">
+        <v>45.81</v>
+      </c>
+      <c r="C13">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D13">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E13">
+        <v>20.63</v>
+      </c>
+      <c r="F13">
+        <v>20.94</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>45.81</v>
+      </c>
+      <c r="B14">
+        <v>45.81</v>
+      </c>
+      <c r="C14">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D14">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E14">
+        <v>21.05</v>
+      </c>
+      <c r="F14">
+        <v>21.36</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>45.81</v>
+      </c>
+      <c r="B15">
+        <v>45.81</v>
+      </c>
+      <c r="C15">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D15">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E15">
+        <v>21.47</v>
+      </c>
+      <c r="F15">
+        <v>21.78</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>48.87</v>
+      </c>
+      <c r="B16">
+        <v>48.87</v>
+      </c>
+      <c r="C16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E16">
+        <v>20.67</v>
+      </c>
+      <c r="F16">
+        <v>20.97</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>48.87</v>
+      </c>
+      <c r="B17">
+        <v>45.81</v>
+      </c>
+      <c r="C17">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D17">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E17">
+        <v>20.78</v>
+      </c>
+      <c r="F17">
+        <v>22.31</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>45.81</v>
+      </c>
+      <c r="B18">
+        <v>48.87</v>
+      </c>
+      <c r="C18">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D18">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E18">
+        <v>22.11</v>
+      </c>
+      <c r="F18">
+        <v>21.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>51.92</v>
+      </c>
+      <c r="B19">
+        <v>51.92</v>
+      </c>
+      <c r="C19">
+        <v>-1.92</v>
+      </c>
+      <c r="D19">
+        <v>-1.92</v>
+      </c>
+      <c r="E19">
+        <v>20.09</v>
+      </c>
+      <c r="F19">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>45.81</v>
+      </c>
+      <c r="B20">
+        <v>45.81</v>
+      </c>
+      <c r="C20">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D20">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E20">
+        <v>22.34</v>
+      </c>
+      <c r="F20">
+        <v>22.65</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>51.92</v>
+      </c>
+      <c r="B21">
+        <v>48.87</v>
+      </c>
+      <c r="C21">
+        <v>-1.92</v>
+      </c>
+      <c r="D21">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E21">
+        <v>20.32</v>
+      </c>
+      <c r="F21">
+        <v>21.84</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>48.87</v>
+      </c>
+      <c r="B22">
+        <v>51.92</v>
+      </c>
+      <c r="C22">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D22">
+        <v>-1.92</v>
+      </c>
+      <c r="E22">
+        <v>21.35</v>
+      </c>
+      <c r="F22">
+        <v>20.73</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>48.87</v>
+      </c>
+      <c r="B23">
+        <v>45.81</v>
+      </c>
+      <c r="C23">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D23">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E23">
+        <v>21.46</v>
+      </c>
+      <c r="F23">
+        <v>22.99</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>48.87</v>
+      </c>
+      <c r="B24">
+        <v>48.87</v>
+      </c>
+      <c r="C24">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D24">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E24">
+        <v>21.57</v>
+      </c>
+      <c r="F24">
+        <v>22.18</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>51.92</v>
+      </c>
+      <c r="B25">
+        <v>51.92</v>
+      </c>
+      <c r="C25">
+        <v>-1.92</v>
+      </c>
+      <c r="D25">
+        <v>-1.92</v>
+      </c>
+      <c r="E25">
+        <v>20.46</v>
+      </c>
+      <c r="F25">
+        <v>21.07</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>45.81</v>
+      </c>
+      <c r="B26">
+        <v>51.92</v>
+      </c>
+      <c r="C26">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D26">
+        <v>-1.92</v>
+      </c>
+      <c r="E26">
+        <v>22.71</v>
+      </c>
+      <c r="F26">
+        <v>20.88</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>51.92</v>
+      </c>
+      <c r="B27">
+        <v>48.87</v>
+      </c>
+      <c r="C27">
+        <v>-1.92</v>
+      </c>
+      <c r="D27">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E27">
+        <v>20.69</v>
+      </c>
+      <c r="F27">
+        <v>21.91</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>48.87</v>
+      </c>
+      <c r="B28">
+        <v>45.81</v>
+      </c>
+      <c r="C28">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D28">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E28">
+        <v>21.72</v>
+      </c>
+      <c r="F28">
+        <v>23.25</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>48.87</v>
+      </c>
+      <c r="B29">
+        <v>51.92</v>
+      </c>
+      <c r="C29">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D29">
+        <v>-1.92</v>
+      </c>
+      <c r="E29">
+        <v>21.83</v>
+      </c>
+      <c r="F29">
+        <v>21.22</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>48.87</v>
+      </c>
+      <c r="B30">
+        <v>51.92</v>
+      </c>
+      <c r="C30">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D30">
+        <v>-1.92</v>
+      </c>
+      <c r="E30">
+        <v>21.94</v>
+      </c>
+      <c r="F30">
+        <v>21.03</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>48.87</v>
+      </c>
+      <c r="B31">
+        <v>51.92</v>
+      </c>
+      <c r="C31">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D31">
+        <v>-1.92</v>
+      </c>
+      <c r="E31">
+        <v>22.06</v>
+      </c>
+      <c r="F31">
+        <v>20.84</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>51.92</v>
+      </c>
+      <c r="B32">
+        <v>45.81</v>
+      </c>
+      <c r="C32">
+        <v>-1.92</v>
+      </c>
+      <c r="D32">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E32">
+        <v>20.95</v>
+      </c>
+      <c r="F32">
+        <v>23.09</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>48.87</v>
+      </c>
+      <c r="B33">
+        <v>51.92</v>
+      </c>
+      <c r="C33">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D33">
+        <v>-1.92</v>
+      </c>
+      <c r="E33">
+        <v>21.98</v>
+      </c>
+      <c r="F33">
+        <v>21.06</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>48.87</v>
+      </c>
+      <c r="B34">
+        <v>48.87</v>
+      </c>
+      <c r="C34">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D34">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E34">
+        <v>22.09</v>
+      </c>
+      <c r="F34">
+        <v>22.09</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>51.92</v>
+      </c>
+      <c r="B35">
+        <v>51.92</v>
+      </c>
+      <c r="C35">
+        <v>-1.92</v>
+      </c>
+      <c r="D35">
+        <v>-1.92</v>
+      </c>
+      <c r="E35">
+        <v>20.98</v>
+      </c>
+      <c r="F35">
+        <v>20.98</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>51.92</v>
+      </c>
+      <c r="B36">
+        <v>51.92</v>
+      </c>
+      <c r="C36">
+        <v>-1.92</v>
+      </c>
+      <c r="D36">
+        <v>-1.92</v>
+      </c>
+      <c r="E36">
+        <v>20.79</v>
+      </c>
+      <c r="F36">
+        <v>20.79</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>45.81</v>
+      </c>
+      <c r="B37">
+        <v>42.76</v>
+      </c>
+      <c r="C37">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D37">
+        <v>7.24</v>
+      </c>
+      <c r="E37">
+        <v>23.04</v>
+      </c>
+      <c r="F37">
+        <v>24.26</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>48.87</v>
+      </c>
+      <c r="B38">
+        <v>51.92</v>
+      </c>
+      <c r="C38">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D38">
+        <v>-1.92</v>
+      </c>
+      <c r="E38">
+        <v>22.24</v>
+      </c>
+      <c r="F38">
+        <v>21.32</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>54.98</v>
+      </c>
+      <c r="B39">
+        <v>54.98</v>
+      </c>
+      <c r="C39">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="D39">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="E39">
+        <v>19.91</v>
+      </c>
+      <c r="F39">
+        <v>19.91</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>48.87</v>
+      </c>
+      <c r="B40">
+        <v>45.81</v>
+      </c>
+      <c r="C40">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D40">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E40">
+        <v>21.85</v>
+      </c>
+      <c r="F40">
+        <v>23.08</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>48.87</v>
+      </c>
+      <c r="B41">
+        <v>51.92</v>
+      </c>
+      <c r="C41">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D41">
+        <v>-1.92</v>
+      </c>
+      <c r="E41">
+        <v>21.97</v>
+      </c>
+      <c r="F41">
+        <v>21.05</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>48.87</v>
+      </c>
+      <c r="B42">
+        <v>51.92</v>
+      </c>
+      <c r="C42">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D42">
+        <v>-1.92</v>
+      </c>
+      <c r="E42">
+        <v>22.08</v>
+      </c>
+      <c r="F42">
+        <v>20.86</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>48.87</v>
+      </c>
+      <c r="B43">
+        <v>45.81</v>
+      </c>
+      <c r="C43">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D43">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E43">
+        <v>22.19</v>
+      </c>
+      <c r="F43">
+        <v>23.11</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>51.92</v>
+      </c>
+      <c r="B44">
+        <v>51.92</v>
+      </c>
+      <c r="C44">
+        <v>-1.92</v>
+      </c>
+      <c r="D44">
+        <v>-1.92</v>
+      </c>
+      <c r="E44">
+        <v>21.08</v>
+      </c>
+      <c r="F44">
+        <v>21.08</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>51.92</v>
+      </c>
+      <c r="B45">
+        <v>48.87</v>
+      </c>
+      <c r="C45">
+        <v>-1.92</v>
+      </c>
+      <c r="D45">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E45">
+        <v>20.89</v>
+      </c>
+      <c r="F45">
+        <v>22.11</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>48.87</v>
+      </c>
+      <c r="B46">
+        <v>51.92</v>
+      </c>
+      <c r="C46">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D46">
+        <v>-1.92</v>
+      </c>
+      <c r="E46">
+        <v>21.92</v>
+      </c>
+      <c r="F46">
+        <v>21</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>48.87</v>
+      </c>
+      <c r="B47">
+        <v>51.92</v>
+      </c>
+      <c r="C47">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D47">
+        <v>-1.92</v>
+      </c>
+      <c r="E47">
+        <v>22.03</v>
+      </c>
+      <c r="F47">
+        <v>20.81</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>48.87</v>
+      </c>
+      <c r="B48">
+        <v>48.87</v>
+      </c>
+      <c r="C48">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D48">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E48">
+        <v>22.15</v>
+      </c>
+      <c r="F48">
+        <v>21.84</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>51.92</v>
+      </c>
+      <c r="B49">
+        <v>45.81</v>
+      </c>
+      <c r="C49">
+        <v>-1.92</v>
+      </c>
+      <c r="D49">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E49">
+        <v>21.04</v>
+      </c>
+      <c r="F49">
+        <v>23.18</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>51.92</v>
+      </c>
+      <c r="B50">
+        <v>51.92</v>
+      </c>
+      <c r="C50">
+        <v>-1.92</v>
+      </c>
+      <c r="D50">
+        <v>-1.92</v>
+      </c>
+      <c r="E50">
+        <v>20.85</v>
+      </c>
+      <c r="F50">
+        <v>21.15</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48.87</v>
+      </c>
+      <c r="B51">
+        <v>51.92</v>
+      </c>
+      <c r="C51">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D51">
+        <v>-1.92</v>
+      </c>
+      <c r="E51">
+        <v>21.88</v>
+      </c>
+      <c r="F51">
+        <v>20.96</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>48.87</v>
+      </c>
+      <c r="B52">
+        <v>48.87</v>
+      </c>
+      <c r="C52">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D52">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E52">
+        <v>21.99</v>
+      </c>
+      <c r="F52">
+        <v>21.99</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>48.87</v>
+      </c>
+      <c r="B53">
+        <v>48.87</v>
+      </c>
+      <c r="C53">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D53">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E53">
+        <v>22.1</v>
+      </c>
+      <c r="F53">
+        <v>22.1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>48.87</v>
+      </c>
+      <c r="B54">
+        <v>48.87</v>
+      </c>
+      <c r="C54">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D54">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E54">
+        <v>22.21</v>
+      </c>
+      <c r="F54">
+        <v>22.21</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>51.92</v>
+      </c>
+      <c r="B55">
+        <v>51.92</v>
+      </c>
+      <c r="C55">
+        <v>-1.92</v>
+      </c>
+      <c r="D55">
+        <v>-1.92</v>
+      </c>
+      <c r="E55">
+        <v>21.11</v>
+      </c>
+      <c r="F55">
+        <v>21.11</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>51.92</v>
+      </c>
+      <c r="B56">
+        <v>51.92</v>
+      </c>
+      <c r="C56">
+        <v>-1.92</v>
+      </c>
+      <c r="D56">
+        <v>-1.92</v>
+      </c>
+      <c r="E56">
+        <v>20.91</v>
+      </c>
+      <c r="F56">
+        <v>20.91</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>48.87</v>
+      </c>
+      <c r="B57">
+        <v>48.87</v>
+      </c>
+      <c r="C57">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D57">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E57">
+        <v>21.94</v>
+      </c>
+      <c r="F57">
+        <v>21.94</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>48.87</v>
+      </c>
+      <c r="B58">
+        <v>45.81</v>
+      </c>
+      <c r="C58">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D58">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E58">
+        <v>22.06</v>
+      </c>
+      <c r="F58">
+        <v>23.28</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>48.87</v>
+      </c>
+      <c r="B59">
+        <v>51.92</v>
+      </c>
+      <c r="C59">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D59">
+        <v>-1.92</v>
+      </c>
+      <c r="E59">
+        <v>22.17</v>
+      </c>
+      <c r="F59">
+        <v>21.25</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>51.92</v>
+      </c>
+      <c r="B60">
+        <v>51.92</v>
+      </c>
+      <c r="C60">
+        <v>-1.92</v>
+      </c>
+      <c r="D60">
+        <v>-1.92</v>
+      </c>
+      <c r="E60">
+        <v>21.06</v>
+      </c>
+      <c r="F60">
+        <v>21.06</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>51.92</v>
+      </c>
+      <c r="B61">
+        <v>51.92</v>
+      </c>
+      <c r="C61">
+        <v>-1.92</v>
+      </c>
+      <c r="D61">
+        <v>-1.92</v>
+      </c>
+      <c r="E61">
+        <v>20.87</v>
+      </c>
+      <c r="F61">
+        <v>20.87</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>48.87</v>
+      </c>
+      <c r="B62">
+        <v>45.81</v>
+      </c>
+      <c r="C62">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D62">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E62">
+        <v>21.9</v>
+      </c>
+      <c r="F62">
+        <v>23.12</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>48.87</v>
+      </c>
+      <c r="B63">
+        <v>51.92</v>
+      </c>
+      <c r="C63">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D63">
+        <v>-1.92</v>
+      </c>
+      <c r="E63">
+        <v>22.01</v>
+      </c>
+      <c r="F63">
+        <v>21.09</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>48.87</v>
+      </c>
+      <c r="B64">
+        <v>51.92</v>
+      </c>
+      <c r="C64">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D64">
+        <v>-1.92</v>
+      </c>
+      <c r="E64">
+        <v>22.12</v>
+      </c>
+      <c r="F64">
+        <v>20.9</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>54.98</v>
+      </c>
+      <c r="B65">
+        <v>48.87</v>
+      </c>
+      <c r="C65">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="D65">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E65">
+        <v>19.79</v>
+      </c>
+      <c r="F65">
+        <v>21.93</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>45.81</v>
+      </c>
+      <c r="B66">
+        <v>45.81</v>
+      </c>
+      <c r="C66">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D66">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E66">
+        <v>22.96</v>
+      </c>
+      <c r="F66">
+        <v>23.27</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>48.87</v>
+      </c>
+      <c r="B67">
+        <v>51.92</v>
+      </c>
+      <c r="C67">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D67">
+        <v>-1.92</v>
+      </c>
+      <c r="E67">
+        <v>22.16</v>
+      </c>
+      <c r="F67">
+        <v>21.24</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>51.92</v>
+      </c>
+      <c r="B68">
+        <v>51.92</v>
+      </c>
+      <c r="C68">
+        <v>-1.92</v>
+      </c>
+      <c r="D68">
+        <v>-1.92</v>
+      </c>
+      <c r="E68">
+        <v>21.05</v>
+      </c>
+      <c r="F68">
+        <v>21.05</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G131" si="1">G67+50</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>51.92</v>
+      </c>
+      <c r="B69">
+        <v>51.92</v>
+      </c>
+      <c r="C69">
+        <v>-1.92</v>
+      </c>
+      <c r="D69">
+        <v>-1.92</v>
+      </c>
+      <c r="E69">
+        <v>20.86</v>
+      </c>
+      <c r="F69">
+        <v>20.86</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>48.87</v>
+      </c>
+      <c r="B70">
+        <v>45.81</v>
+      </c>
+      <c r="C70">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D70">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E70">
+        <v>21.89</v>
+      </c>
+      <c r="F70">
+        <v>23.11</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>48.87</v>
+      </c>
+      <c r="B71">
+        <v>51.92</v>
+      </c>
+      <c r="C71">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D71">
+        <v>-1.92</v>
+      </c>
+      <c r="E71">
+        <v>22</v>
+      </c>
+      <c r="F71">
+        <v>21.08</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>48.87</v>
+      </c>
+      <c r="B72">
+        <v>51.92</v>
+      </c>
+      <c r="C72">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D72">
+        <v>-1.92</v>
+      </c>
+      <c r="E72">
+        <v>22.11</v>
+      </c>
+      <c r="F72">
+        <v>20.89</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>51.92</v>
+      </c>
+      <c r="B73">
+        <v>48.87</v>
+      </c>
+      <c r="C73">
+        <v>-1.92</v>
+      </c>
+      <c r="D73">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E73">
+        <v>21</v>
+      </c>
+      <c r="F73">
+        <v>21.92</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>48.87</v>
+      </c>
+      <c r="B74">
+        <v>45.81</v>
+      </c>
+      <c r="C74">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D74">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E74">
+        <v>22.03</v>
+      </c>
+      <c r="F74">
+        <v>23.25</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>51.92</v>
+      </c>
+      <c r="B75">
+        <v>54.98</v>
+      </c>
+      <c r="C75">
+        <v>-1.92</v>
+      </c>
+      <c r="D75">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="E75">
+        <v>20.92</v>
+      </c>
+      <c r="F75">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>48.87</v>
+      </c>
+      <c r="B76">
+        <v>48.87</v>
+      </c>
+      <c r="C76">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D76">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E76">
+        <v>21.95</v>
+      </c>
+      <c r="F76">
+        <v>21.95</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>48.87</v>
+      </c>
+      <c r="B77">
+        <v>48.87</v>
+      </c>
+      <c r="C77">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D77">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E77">
+        <v>22.07</v>
+      </c>
+      <c r="F77">
+        <v>22.07</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>51.92</v>
+      </c>
+      <c r="B78">
+        <v>48.87</v>
+      </c>
+      <c r="C78">
+        <v>-1.92</v>
+      </c>
+      <c r="D78">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E78">
+        <v>20.96</v>
+      </c>
+      <c r="F78">
+        <v>22.18</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>48.87</v>
+      </c>
+      <c r="B79">
+        <v>51.92</v>
+      </c>
+      <c r="C79">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D79">
+        <v>-1.92</v>
+      </c>
+      <c r="E79">
+        <v>21.99</v>
+      </c>
+      <c r="F79">
+        <v>21.07</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>48.87</v>
+      </c>
+      <c r="B80">
+        <v>51.92</v>
+      </c>
+      <c r="C80">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D80">
+        <v>-1.92</v>
+      </c>
+      <c r="E80">
+        <v>22.1</v>
+      </c>
+      <c r="F80">
+        <v>20.88</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>48.87</v>
+      </c>
+      <c r="B81">
+        <v>48.87</v>
+      </c>
+      <c r="C81">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D81">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E81">
+        <v>22.21</v>
+      </c>
+      <c r="F81">
+        <v>21.91</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>54.98</v>
+      </c>
+      <c r="B82">
+        <v>48.87</v>
+      </c>
+      <c r="C82">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="D82">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E82">
+        <v>19.88</v>
+      </c>
+      <c r="F82">
+        <v>22.02</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>48.87</v>
+      </c>
+      <c r="B83">
+        <v>51.92</v>
+      </c>
+      <c r="C83">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D83">
+        <v>-1.92</v>
+      </c>
+      <c r="E83">
+        <v>21.83</v>
+      </c>
+      <c r="F83">
+        <v>20.91</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>45.81</v>
+      </c>
+      <c r="B84">
+        <v>48.87</v>
+      </c>
+      <c r="C84">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D84">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E84">
+        <v>23.16</v>
+      </c>
+      <c r="F84">
+        <v>21.94</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>51.92</v>
+      </c>
+      <c r="B85">
+        <v>48.87</v>
+      </c>
+      <c r="C85">
+        <v>-1.92</v>
+      </c>
+      <c r="D85">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E85">
+        <v>21.14</v>
+      </c>
+      <c r="F85">
+        <v>22.06</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>51.92</v>
+      </c>
+      <c r="B86">
+        <v>48.87</v>
+      </c>
+      <c r="C86">
+        <v>-1.92</v>
+      </c>
+      <c r="D86">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E86">
+        <v>20.95</v>
+      </c>
+      <c r="F86">
+        <v>22.17</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>48.87</v>
+      </c>
+      <c r="B87">
+        <v>51.92</v>
+      </c>
+      <c r="C87">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D87">
+        <v>-1.92</v>
+      </c>
+      <c r="E87">
+        <v>21.98</v>
+      </c>
+      <c r="F87">
+        <v>21.06</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>48.87</v>
+      </c>
+      <c r="B88">
+        <v>51.92</v>
+      </c>
+      <c r="C88">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D88">
+        <v>-1.92</v>
+      </c>
+      <c r="E88">
+        <v>22.09</v>
+      </c>
+      <c r="F88">
+        <v>20.87</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>48.87</v>
+      </c>
+      <c r="B89">
+        <v>48.87</v>
+      </c>
+      <c r="C89">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D89">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E89">
+        <v>22.2</v>
+      </c>
+      <c r="F89">
+        <v>21.9</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>54.98</v>
+      </c>
+      <c r="B90">
+        <v>48.87</v>
+      </c>
+      <c r="C90">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="D90">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E90">
+        <v>19.87</v>
+      </c>
+      <c r="F90">
+        <v>22.01</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>48.87</v>
+      </c>
+      <c r="B91">
+        <v>48.87</v>
+      </c>
+      <c r="C91">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D91">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E91">
+        <v>21.82</v>
+      </c>
+      <c r="F91">
+        <v>22.12</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>45.81</v>
+      </c>
+      <c r="B92">
+        <v>54.98</v>
+      </c>
+      <c r="C92">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D92">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="E92">
+        <v>23.15</v>
+      </c>
+      <c r="F92">
+        <v>19.79</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>51.92</v>
+      </c>
+      <c r="B93">
+        <v>48.87</v>
+      </c>
+      <c r="C93">
+        <v>-1.92</v>
+      </c>
+      <c r="D93">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E93">
+        <v>21.13</v>
+      </c>
+      <c r="F93">
+        <v>21.74</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>54.98</v>
+      </c>
+      <c r="B94">
+        <v>45.81</v>
+      </c>
+      <c r="C94">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="D94">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E94">
+        <v>19.71</v>
+      </c>
+      <c r="F94">
+        <v>23.07</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>45.81</v>
+      </c>
+      <c r="B95">
+        <v>51.92</v>
+      </c>
+      <c r="C95">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D95">
+        <v>-1.92</v>
+      </c>
+      <c r="E95">
+        <v>22.88</v>
+      </c>
+      <c r="F95">
+        <v>21.05</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>48.87</v>
+      </c>
+      <c r="B96">
+        <v>51.92</v>
+      </c>
+      <c r="C96">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D96">
+        <v>-1.92</v>
+      </c>
+      <c r="E96">
+        <v>22.08</v>
+      </c>
+      <c r="F96">
+        <v>20.86</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>51.92</v>
+      </c>
+      <c r="B97">
+        <v>48.87</v>
+      </c>
+      <c r="C97">
+        <v>-1.92</v>
+      </c>
+      <c r="D97">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E97">
+        <v>20.97</v>
+      </c>
+      <c r="F97">
+        <v>21.88</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>51.92</v>
+      </c>
+      <c r="B98">
+        <v>48.87</v>
+      </c>
+      <c r="C98">
+        <v>-1.92</v>
+      </c>
+      <c r="D98">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E98">
+        <v>20.78</v>
+      </c>
+      <c r="F98">
+        <v>22</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>48.87</v>
+      </c>
+      <c r="B99">
+        <v>48.87</v>
+      </c>
+      <c r="C99">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D99">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E99">
+        <v>21.81</v>
+      </c>
+      <c r="F99">
+        <v>22.11</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>48.87</v>
+      </c>
+      <c r="B100">
+        <v>48.87</v>
+      </c>
+      <c r="C100">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D100">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E100">
+        <v>21.92</v>
+      </c>
+      <c r="F100">
+        <v>22.22</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="B101">
+        <v>51.92</v>
+      </c>
+      <c r="C101">
+        <v>31.67</v>
+      </c>
+      <c r="D101">
+        <v>-1.92</v>
+      </c>
+      <c r="E101">
+        <v>34.25</v>
+      </c>
+      <c r="F101">
+        <v>21.12</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>6.11</v>
+      </c>
+      <c r="B102">
+        <v>51.92</v>
+      </c>
+      <c r="C102">
+        <v>43.89</v>
+      </c>
+      <c r="D102">
+        <v>-1.92</v>
+      </c>
+      <c r="E102">
+        <v>42.3</v>
+      </c>
+      <c r="F102">
+        <v>20.92</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>24.43</v>
+      </c>
+      <c r="B103">
+        <v>48.87</v>
+      </c>
+      <c r="C103">
+        <v>25.57</v>
+      </c>
+      <c r="D103">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E103">
+        <v>39.36</v>
+      </c>
+      <c r="F103">
+        <v>21.95</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>24.43</v>
+      </c>
+      <c r="B104">
+        <v>48.87</v>
+      </c>
+      <c r="C104">
+        <v>25.57</v>
+      </c>
+      <c r="D104">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E104">
+        <v>41.92</v>
+      </c>
+      <c r="F104">
+        <v>22.07</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="B105">
+        <v>48.87</v>
+      </c>
+      <c r="C105">
+        <v>31.67</v>
+      </c>
+      <c r="D105">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E105">
+        <v>46.92</v>
+      </c>
+      <c r="F105">
+        <v>22.18</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>15.27</v>
+      </c>
+      <c r="B106">
+        <v>54.98</v>
+      </c>
+      <c r="C106">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="D106">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="E106">
+        <v>51.31</v>
+      </c>
+      <c r="F106">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>24.43</v>
+      </c>
+      <c r="B107">
+        <v>45.81</v>
+      </c>
+      <c r="C107">
+        <v>25.57</v>
+      </c>
+      <c r="D107">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E107">
+        <v>51.12</v>
+      </c>
+      <c r="F107">
+        <v>23.02</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>39.71</v>
+      </c>
+      <c r="B108">
+        <v>48.87</v>
+      </c>
+      <c r="C108">
+        <v>10.29</v>
+      </c>
+      <c r="D108">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E108">
+        <v>47.56</v>
+      </c>
+      <c r="F108">
+        <v>22.21</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>33.6</v>
+      </c>
+      <c r="B109">
+        <v>51.92</v>
+      </c>
+      <c r="C109">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D109">
+        <v>-1.92</v>
+      </c>
+      <c r="E109">
+        <v>51.04</v>
+      </c>
+      <c r="F109">
+        <v>21.1</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>36.65</v>
+      </c>
+      <c r="B110">
+        <v>51.92</v>
+      </c>
+      <c r="C110">
+        <v>13.35</v>
+      </c>
+      <c r="D110">
+        <v>-1.92</v>
+      </c>
+      <c r="E110">
+        <v>51.45</v>
+      </c>
+      <c r="F110">
+        <v>20.91</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>30.54</v>
+      </c>
+      <c r="B111">
+        <v>48.87</v>
+      </c>
+      <c r="C111">
+        <v>19.46</v>
+      </c>
+      <c r="D111">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E111">
+        <v>55.23</v>
+      </c>
+      <c r="F111">
+        <v>21.94</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>27.49</v>
+      </c>
+      <c r="B112">
+        <v>45.81</v>
+      </c>
+      <c r="C112">
+        <v>22.51</v>
+      </c>
+      <c r="D112">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E112">
+        <v>58.4</v>
+      </c>
+      <c r="F112">
+        <v>23.28</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>30.54</v>
+      </c>
+      <c r="B113">
+        <v>51.92</v>
+      </c>
+      <c r="C113">
+        <v>19.46</v>
+      </c>
+      <c r="D113">
+        <v>-1.92</v>
+      </c>
+      <c r="E113">
+        <v>59.43</v>
+      </c>
+      <c r="F113">
+        <v>21.25</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>45.81</v>
+      </c>
+      <c r="B114">
+        <v>51.92</v>
+      </c>
+      <c r="C114">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D114">
+        <v>-1.92</v>
+      </c>
+      <c r="E114">
+        <v>55.27</v>
+      </c>
+      <c r="F114">
+        <v>21.06</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>122.17</v>
+      </c>
+      <c r="B115">
+        <v>51.92</v>
+      </c>
+      <c r="C115">
+        <v>-72.17</v>
+      </c>
+      <c r="D115">
+        <v>-1.92</v>
+      </c>
+      <c r="E115">
+        <v>25.14</v>
+      </c>
+      <c r="F115">
+        <v>20.87</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>113.01</v>
+      </c>
+      <c r="B116">
+        <v>45.81</v>
+      </c>
+      <c r="C116">
+        <v>-63.01</v>
+      </c>
+      <c r="D116">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E116">
+        <v>21.59</v>
+      </c>
+      <c r="F116">
+        <v>23.12</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>73.3</v>
+      </c>
+      <c r="B117">
+        <v>51.92</v>
+      </c>
+      <c r="C117">
+        <v>-23.3</v>
+      </c>
+      <c r="D117">
+        <v>-1.92</v>
+      </c>
+      <c r="E117">
+        <v>31.17</v>
+      </c>
+      <c r="F117">
+        <v>21.09</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>70.25</v>
+      </c>
+      <c r="B118">
+        <v>51.92</v>
+      </c>
+      <c r="C118">
+        <v>-20.25</v>
+      </c>
+      <c r="D118">
+        <v>-1.92</v>
+      </c>
+      <c r="E118">
+        <v>30.06</v>
+      </c>
+      <c r="F118">
+        <v>20.9</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>82.47</v>
+      </c>
+      <c r="B119">
+        <v>48.87</v>
+      </c>
+      <c r="C119">
+        <v>-32.47</v>
+      </c>
+      <c r="D119">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E119">
+        <v>23.15</v>
+      </c>
+      <c r="F119">
+        <v>21.93</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>70.25</v>
+      </c>
+      <c r="B120">
+        <v>48.87</v>
+      </c>
+      <c r="C120">
+        <v>-20.25</v>
+      </c>
+      <c r="D120">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E120">
+        <v>24.79</v>
+      </c>
+      <c r="F120">
+        <v>22.04</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>61.09</v>
+      </c>
+      <c r="B121">
+        <v>48.87</v>
+      </c>
+      <c r="C121">
+        <v>-11.09</v>
+      </c>
+      <c r="D121">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E121">
+        <v>26.43</v>
+      </c>
+      <c r="F121">
+        <v>22.16</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>64.14</v>
+      </c>
+      <c r="B122">
+        <v>51.92</v>
+      </c>
+      <c r="C122">
+        <v>-14.14</v>
+      </c>
+      <c r="D122">
+        <v>-1.92</v>
+      </c>
+      <c r="E122">
+        <v>24.1</v>
+      </c>
+      <c r="F122">
+        <v>21.05</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>64.14</v>
+      </c>
+      <c r="B123">
+        <v>51.92</v>
+      </c>
+      <c r="C123">
+        <v>-14.14</v>
+      </c>
+      <c r="D123">
+        <v>-1.92</v>
+      </c>
+      <c r="E123">
+        <v>22.69</v>
+      </c>
+      <c r="F123">
+        <v>20.85</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="1"/>
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>58.03</v>
+      </c>
+      <c r="B124">
+        <v>48.87</v>
+      </c>
+      <c r="C124">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="D124">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E124">
+        <v>23.72</v>
+      </c>
+      <c r="F124">
+        <v>21.88</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="1"/>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>54.98</v>
+      </c>
+      <c r="B125">
+        <v>48.87</v>
+      </c>
+      <c r="C125">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="D125">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E125">
+        <v>24.13</v>
+      </c>
+      <c r="F125">
+        <v>22</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>58.03</v>
+      </c>
+      <c r="B126">
+        <v>48.87</v>
+      </c>
+      <c r="C126">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="D126">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E126">
+        <v>22.42</v>
+      </c>
+      <c r="F126">
+        <v>22.11</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>58.03</v>
+      </c>
+      <c r="B127">
+        <v>48.87</v>
+      </c>
+      <c r="C127">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="D127">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E127">
+        <v>21.61</v>
+      </c>
+      <c r="F127">
+        <v>22.22</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>51.92</v>
+      </c>
+      <c r="B128">
+        <v>54.98</v>
+      </c>
+      <c r="C128">
+        <v>-1.92</v>
+      </c>
+      <c r="D128">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="E128">
+        <v>23.25</v>
+      </c>
+      <c r="F128">
+        <v>19.89</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="1"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>54.98</v>
+      </c>
+      <c r="B129">
+        <v>48.87</v>
+      </c>
+      <c r="C129">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="D129">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E129">
+        <v>21.84</v>
+      </c>
+      <c r="F129">
+        <v>21.84</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="1"/>
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>48.87</v>
+      </c>
+      <c r="B130">
+        <v>45.81</v>
+      </c>
+      <c r="C130">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D130">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E130">
+        <v>23.78</v>
+      </c>
+      <c r="F130">
+        <v>23.17</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="1"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>54.98</v>
+      </c>
+      <c r="B131">
+        <v>51.92</v>
+      </c>
+      <c r="C131">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="D131">
+        <v>-1.92</v>
+      </c>
+      <c r="E131">
+        <v>21.45</v>
+      </c>
+      <c r="F131">
+        <v>21.15</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="1"/>
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>51.92</v>
+      </c>
+      <c r="B132">
+        <v>51.92</v>
+      </c>
+      <c r="C132">
+        <v>-1.92</v>
+      </c>
+      <c r="D132">
+        <v>-1.92</v>
+      </c>
+      <c r="E132">
+        <v>22.18</v>
+      </c>
+      <c r="F132">
+        <v>20.96</v>
+      </c>
+      <c r="G132">
+        <f t="shared" ref="G132:G195" si="2">G131+50</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>51.92</v>
+      </c>
+      <c r="B133">
+        <v>48.87</v>
+      </c>
+      <c r="C133">
+        <v>-1.92</v>
+      </c>
+      <c r="D133">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E133">
+        <v>21.99</v>
+      </c>
+      <c r="F133">
+        <v>21.99</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>51.92</v>
+      </c>
+      <c r="B134">
+        <v>45.81</v>
+      </c>
+      <c r="C134">
+        <v>-1.92</v>
+      </c>
+      <c r="D134">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E134">
+        <v>21.79</v>
+      </c>
+      <c r="F134">
+        <v>23.32</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>48.87</v>
+      </c>
+      <c r="B135">
+        <v>54.98</v>
+      </c>
+      <c r="C135">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D135">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="E135">
+        <v>22.82</v>
+      </c>
+      <c r="F135">
+        <v>20.07</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>51.92</v>
+      </c>
+      <c r="B136">
+        <v>48.87</v>
+      </c>
+      <c r="C136">
+        <v>-1.92</v>
+      </c>
+      <c r="D136">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E136">
+        <v>21.71</v>
+      </c>
+      <c r="F136">
+        <v>22.02</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="2"/>
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>51.92</v>
+      </c>
+      <c r="B137">
+        <v>51.92</v>
+      </c>
+      <c r="C137">
+        <v>-1.92</v>
+      </c>
+      <c r="D137">
+        <v>-1.92</v>
+      </c>
+      <c r="E137">
+        <v>21.52</v>
+      </c>
+      <c r="F137">
+        <v>20.91</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="2"/>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>48.87</v>
+      </c>
+      <c r="B138">
+        <v>48.87</v>
+      </c>
+      <c r="C138">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D138">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E138">
+        <v>22.55</v>
+      </c>
+      <c r="F138">
+        <v>21.94</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="2"/>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>51.92</v>
+      </c>
+      <c r="B139">
+        <v>48.87</v>
+      </c>
+      <c r="C139">
+        <v>-1.92</v>
+      </c>
+      <c r="D139">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E139">
+        <v>21.44</v>
+      </c>
+      <c r="F139">
+        <v>22.05</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="2"/>
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>48.87</v>
+      </c>
+      <c r="B140">
+        <v>48.87</v>
+      </c>
+      <c r="C140">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D140">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E140">
+        <v>22.47</v>
+      </c>
+      <c r="F140">
+        <v>22.17</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="2"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>51.92</v>
+      </c>
+      <c r="B141">
+        <v>51.92</v>
+      </c>
+      <c r="C141">
+        <v>-1.92</v>
+      </c>
+      <c r="D141">
+        <v>-1.92</v>
+      </c>
+      <c r="E141">
+        <v>21.36</v>
+      </c>
+      <c r="F141">
+        <v>21.06</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="2"/>
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>51.92</v>
+      </c>
+      <c r="B142">
+        <v>51.92</v>
+      </c>
+      <c r="C142">
+        <v>-1.92</v>
+      </c>
+      <c r="D142">
+        <v>-1.92</v>
+      </c>
+      <c r="E142">
+        <v>21.17</v>
+      </c>
+      <c r="F142">
+        <v>20.86</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>48.87</v>
+      </c>
+      <c r="B143">
+        <v>48.87</v>
+      </c>
+      <c r="C143">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D143">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E143">
+        <v>22.2</v>
+      </c>
+      <c r="F143">
+        <v>21.89</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>51.92</v>
+      </c>
+      <c r="B144">
+        <v>48.87</v>
+      </c>
+      <c r="C144">
+        <v>-1.92</v>
+      </c>
+      <c r="D144">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E144">
+        <v>21.09</v>
+      </c>
+      <c r="F144">
+        <v>22.01</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>51.92</v>
+      </c>
+      <c r="B145">
+        <v>48.87</v>
+      </c>
+      <c r="C145">
+        <v>-1.92</v>
+      </c>
+      <c r="D145">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E145">
+        <v>20.9</v>
+      </c>
+      <c r="F145">
+        <v>22.12</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>48.87</v>
+      </c>
+      <c r="B146">
+        <v>54.98</v>
+      </c>
+      <c r="C146">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D146">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="E146">
+        <v>21.93</v>
+      </c>
+      <c r="F146">
+        <v>19.79</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>45.81</v>
+      </c>
+      <c r="B147">
+        <v>45.81</v>
+      </c>
+      <c r="C147">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D147">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E147">
+        <v>23.26</v>
+      </c>
+      <c r="F147">
+        <v>22.96</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>51.92</v>
+      </c>
+      <c r="B148">
+        <v>48.87</v>
+      </c>
+      <c r="C148">
+        <v>-1.92</v>
+      </c>
+      <c r="D148">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E148">
+        <v>21.24</v>
+      </c>
+      <c r="F148">
+        <v>22.15</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>51.92</v>
+      </c>
+      <c r="B149">
+        <v>51.92</v>
+      </c>
+      <c r="C149">
+        <v>-1.92</v>
+      </c>
+      <c r="D149">
+        <v>-1.92</v>
+      </c>
+      <c r="E149">
+        <v>21.05</v>
+      </c>
+      <c r="F149">
+        <v>21.05</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>51.92</v>
+      </c>
+      <c r="B150">
+        <v>51.92</v>
+      </c>
+      <c r="C150">
+        <v>-1.92</v>
+      </c>
+      <c r="D150">
+        <v>-1.92</v>
+      </c>
+      <c r="E150">
+        <v>20.85</v>
+      </c>
+      <c r="F150">
+        <v>20.85</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>48.87</v>
+      </c>
+      <c r="B151">
+        <v>48.87</v>
+      </c>
+      <c r="C151">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D151">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E151">
+        <v>21.88</v>
+      </c>
+      <c r="F151">
+        <v>21.88</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>45.81</v>
+      </c>
+      <c r="B152">
+        <v>48.87</v>
+      </c>
+      <c r="C152">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D152">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E152">
+        <v>23.22</v>
+      </c>
+      <c r="F152">
+        <v>22</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>51.92</v>
+      </c>
+      <c r="B153">
+        <v>48.87</v>
+      </c>
+      <c r="C153">
+        <v>-1.92</v>
+      </c>
+      <c r="D153">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E153">
+        <v>21.19</v>
+      </c>
+      <c r="F153">
+        <v>22.11</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>51.92</v>
+      </c>
+      <c r="B154">
+        <v>48.87</v>
+      </c>
+      <c r="C154">
+        <v>-1.92</v>
+      </c>
+      <c r="D154">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E154">
+        <v>21</v>
+      </c>
+      <c r="F154">
+        <v>22.22</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="2"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>48.87</v>
+      </c>
+      <c r="B155">
+        <v>51.92</v>
+      </c>
+      <c r="C155">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D155">
+        <v>-1.92</v>
+      </c>
+      <c r="E155">
+        <v>22.03</v>
+      </c>
+      <c r="F155">
+        <v>21.11</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="2"/>
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>48.87</v>
+      </c>
+      <c r="B156">
+        <v>51.92</v>
+      </c>
+      <c r="C156">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D156">
+        <v>-1.92</v>
+      </c>
+      <c r="E156">
+        <v>22.14</v>
+      </c>
+      <c r="F156">
+        <v>20.92</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>51.92</v>
+      </c>
+      <c r="B157">
+        <v>48.87</v>
+      </c>
+      <c r="C157">
+        <v>-1.92</v>
+      </c>
+      <c r="D157">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E157">
+        <v>21.03</v>
+      </c>
+      <c r="F157">
+        <v>21.95</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="2"/>
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>51.92</v>
+      </c>
+      <c r="B158">
+        <v>48.87</v>
+      </c>
+      <c r="C158">
+        <v>-1.92</v>
+      </c>
+      <c r="D158">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E158">
+        <v>20.84</v>
+      </c>
+      <c r="F158">
+        <v>22.06</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="2"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>45.81</v>
+      </c>
+      <c r="B159">
+        <v>51.92</v>
+      </c>
+      <c r="C159">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D159">
+        <v>-1.92</v>
+      </c>
+      <c r="E159">
+        <v>23.09</v>
+      </c>
+      <c r="F159">
+        <v>20.95</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="2"/>
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>51.92</v>
+      </c>
+      <c r="B160">
+        <v>48.87</v>
+      </c>
+      <c r="C160">
+        <v>-1.92</v>
+      </c>
+      <c r="D160">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E160">
+        <v>21.07</v>
+      </c>
+      <c r="F160">
+        <v>21.98</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="2"/>
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>51.92</v>
+      </c>
+      <c r="B161">
+        <v>48.87</v>
+      </c>
+      <c r="C161">
+        <v>-1.92</v>
+      </c>
+      <c r="D161">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E161">
+        <v>20.88</v>
+      </c>
+      <c r="F161">
+        <v>22.1</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="2"/>
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>48.87</v>
+      </c>
+      <c r="B162">
+        <v>51.92</v>
+      </c>
+      <c r="C162">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D162">
+        <v>-1.92</v>
+      </c>
+      <c r="E162">
+        <v>21.9</v>
+      </c>
+      <c r="F162">
+        <v>20.99</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>48.87</v>
+      </c>
+      <c r="B163">
+        <v>48.87</v>
+      </c>
+      <c r="C163">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D163">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E163">
+        <v>22.02</v>
+      </c>
+      <c r="F163">
+        <v>22.02</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="2"/>
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>48.87</v>
+      </c>
+      <c r="B164">
+        <v>48.87</v>
+      </c>
+      <c r="C164">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D164">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E164">
+        <v>22.13</v>
+      </c>
+      <c r="F164">
+        <v>22.13</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="2"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>51.92</v>
+      </c>
+      <c r="B165">
+        <v>51.92</v>
+      </c>
+      <c r="C165">
+        <v>-1.92</v>
+      </c>
+      <c r="D165">
+        <v>-1.92</v>
+      </c>
+      <c r="E165">
+        <v>21.02</v>
+      </c>
+      <c r="F165">
+        <v>21.02</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="2"/>
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>51.92</v>
+      </c>
+      <c r="B166">
+        <v>51.92</v>
+      </c>
+      <c r="C166">
+        <v>-1.92</v>
+      </c>
+      <c r="D166">
+        <v>-1.92</v>
+      </c>
+      <c r="E166">
+        <v>20.83</v>
+      </c>
+      <c r="F166">
+        <v>20.83</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="2"/>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>48.87</v>
+      </c>
+      <c r="B167">
+        <v>48.87</v>
+      </c>
+      <c r="C167">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D167">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E167">
+        <v>21.86</v>
+      </c>
+      <c r="F167">
+        <v>21.86</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="2"/>
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>48.87</v>
+      </c>
+      <c r="B168">
+        <v>48.87</v>
+      </c>
+      <c r="C168">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D168">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E168">
+        <v>21.97</v>
+      </c>
+      <c r="F168">
+        <v>21.97</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="2"/>
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>48.87</v>
+      </c>
+      <c r="B169">
+        <v>48.87</v>
+      </c>
+      <c r="C169">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D169">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E169">
+        <v>22.09</v>
+      </c>
+      <c r="F169">
+        <v>22.09</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="2"/>
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>51.92</v>
+      </c>
+      <c r="B170">
+        <v>51.92</v>
+      </c>
+      <c r="C170">
+        <v>-1.92</v>
+      </c>
+      <c r="D170">
+        <v>-1.92</v>
+      </c>
+      <c r="E170">
+        <v>20.98</v>
+      </c>
+      <c r="F170">
+        <v>20.98</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="2"/>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>48.87</v>
+      </c>
+      <c r="B171">
+        <v>51.92</v>
+      </c>
+      <c r="C171">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D171">
+        <v>-1.92</v>
+      </c>
+      <c r="E171">
+        <v>22.01</v>
+      </c>
+      <c r="F171">
+        <v>20.78</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="2"/>
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>48.87</v>
+      </c>
+      <c r="B172">
+        <v>45.81</v>
+      </c>
+      <c r="C172">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D172">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E172">
+        <v>22.12</v>
+      </c>
+      <c r="F172">
+        <v>23.04</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="2"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>54.98</v>
+      </c>
+      <c r="B173">
+        <v>51.92</v>
+      </c>
+      <c r="C173">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="D173">
+        <v>-1.92</v>
+      </c>
+      <c r="E173">
+        <v>19.79</v>
+      </c>
+      <c r="F173">
+        <v>21.01</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="2"/>
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>48.87</v>
+      </c>
+      <c r="B174">
+        <v>48.87</v>
+      </c>
+      <c r="C174">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D174">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E174">
+        <v>21.73</v>
+      </c>
+      <c r="F174">
+        <v>22.04</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="2"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>45.81</v>
+      </c>
+      <c r="B175">
+        <v>54.98</v>
+      </c>
+      <c r="C175">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D175">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="E175">
+        <v>23.07</v>
+      </c>
+      <c r="F175">
+        <v>19.71</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="2"/>
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>51.92</v>
+      </c>
+      <c r="B176">
+        <v>45.81</v>
+      </c>
+      <c r="C176">
+        <v>-1.92</v>
+      </c>
+      <c r="D176">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E176">
+        <v>21.04</v>
+      </c>
+      <c r="F176">
+        <v>22.88</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="2"/>
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>51.92</v>
+      </c>
+      <c r="B177">
+        <v>51.92</v>
+      </c>
+      <c r="C177">
+        <v>-1.92</v>
+      </c>
+      <c r="D177">
+        <v>-1.92</v>
+      </c>
+      <c r="E177">
+        <v>20.85</v>
+      </c>
+      <c r="F177">
+        <v>20.85</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="2"/>
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>48.87</v>
+      </c>
+      <c r="B178">
+        <v>48.87</v>
+      </c>
+      <c r="C178">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D178">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E178">
+        <v>21.88</v>
+      </c>
+      <c r="F178">
+        <v>21.88</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="2"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>48.87</v>
+      </c>
+      <c r="B179">
+        <v>48.87</v>
+      </c>
+      <c r="C179">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D179">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E179">
+        <v>21.99</v>
+      </c>
+      <c r="F179">
+        <v>21.99</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="2"/>
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>51.92</v>
+      </c>
+      <c r="B180">
+        <v>48.87</v>
+      </c>
+      <c r="C180">
+        <v>-1.92</v>
+      </c>
+      <c r="D180">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E180">
+        <v>20.89</v>
+      </c>
+      <c r="F180">
+        <v>22.11</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="2"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>45.81</v>
+      </c>
+      <c r="B181">
+        <v>51.92</v>
+      </c>
+      <c r="C181">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D181">
+        <v>-1.92</v>
+      </c>
+      <c r="E181">
+        <v>23.14</v>
+      </c>
+      <c r="F181">
+        <v>21</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="2"/>
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>51.92</v>
+      </c>
+      <c r="B182">
+        <v>48.87</v>
+      </c>
+      <c r="C182">
+        <v>-1.92</v>
+      </c>
+      <c r="D182">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E182">
+        <v>21.11</v>
+      </c>
+      <c r="F182">
+        <v>22.03</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>51.92</v>
+      </c>
+      <c r="B183">
+        <v>48.87</v>
+      </c>
+      <c r="C183">
+        <v>-1.92</v>
+      </c>
+      <c r="D183">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E183">
+        <v>20.92</v>
+      </c>
+      <c r="F183">
+        <v>22.14</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="2"/>
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>48.87</v>
+      </c>
+      <c r="B184">
+        <v>51.92</v>
+      </c>
+      <c r="C184">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D184">
+        <v>-1.92</v>
+      </c>
+      <c r="E184">
+        <v>21.95</v>
+      </c>
+      <c r="F184">
+        <v>21.03</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="2"/>
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>48.87</v>
+      </c>
+      <c r="B185">
+        <v>51.92</v>
+      </c>
+      <c r="C185">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D185">
+        <v>-1.92</v>
+      </c>
+      <c r="E185">
+        <v>22.06</v>
+      </c>
+      <c r="F185">
+        <v>20.84</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="2"/>
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>51.92</v>
+      </c>
+      <c r="B186">
+        <v>48.87</v>
+      </c>
+      <c r="C186">
+        <v>-1.92</v>
+      </c>
+      <c r="D186">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E186">
+        <v>20.95</v>
+      </c>
+      <c r="F186">
+        <v>21.87</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="2"/>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>48.87</v>
+      </c>
+      <c r="B187">
+        <v>48.87</v>
+      </c>
+      <c r="C187">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D187">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E187">
+        <v>21.98</v>
+      </c>
+      <c r="F187">
+        <v>21.98</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="2"/>
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>48.87</v>
+      </c>
+      <c r="B188">
+        <v>48.87</v>
+      </c>
+      <c r="C188">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D188">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E188">
+        <v>22.1</v>
+      </c>
+      <c r="F188">
+        <v>22.1</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="2"/>
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>48.87</v>
+      </c>
+      <c r="B189">
+        <v>51.92</v>
+      </c>
+      <c r="C189">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D189">
+        <v>-1.92</v>
+      </c>
+      <c r="E189">
+        <v>22.21</v>
+      </c>
+      <c r="F189">
+        <v>20.99</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="2"/>
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>54.98</v>
+      </c>
+      <c r="B190">
+        <v>48.87</v>
+      </c>
+      <c r="C190">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="D190">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E190">
+        <v>19.88</v>
+      </c>
+      <c r="F190">
+        <v>22.02</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="2"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>48.87</v>
+      </c>
+      <c r="B191">
+        <v>51.92</v>
+      </c>
+      <c r="C191">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D191">
+        <v>-1.92</v>
+      </c>
+      <c r="E191">
+        <v>21.82</v>
+      </c>
+      <c r="F191">
+        <v>20.91</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="2"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>45.81</v>
+      </c>
+      <c r="B192">
+        <v>48.87</v>
+      </c>
+      <c r="C192">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D192">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E192">
+        <v>23.16</v>
+      </c>
+      <c r="F192">
+        <v>21.94</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="2"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>51.92</v>
+      </c>
+      <c r="B193">
+        <v>48.87</v>
+      </c>
+      <c r="C193">
+        <v>-1.92</v>
+      </c>
+      <c r="D193">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E193">
+        <v>21.13</v>
+      </c>
+      <c r="F193">
+        <v>22.05</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="2"/>
+        <v>9550</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>51.92</v>
+      </c>
+      <c r="B194">
+        <v>51.92</v>
+      </c>
+      <c r="C194">
+        <v>-1.92</v>
+      </c>
+      <c r="D194">
+        <v>-1.92</v>
+      </c>
+      <c r="E194">
+        <v>20.94</v>
+      </c>
+      <c r="F194">
+        <v>20.94</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>48.87</v>
+      </c>
+      <c r="B195">
+        <v>48.87</v>
+      </c>
+      <c r="C195">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D195">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E195">
+        <v>21.97</v>
+      </c>
+      <c r="F195">
+        <v>21.97</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="2"/>
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>48.87</v>
+      </c>
+      <c r="B196">
+        <v>48.87</v>
+      </c>
+      <c r="C196">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D196">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E196">
+        <v>22.08</v>
+      </c>
+      <c r="F196">
+        <v>22.08</v>
+      </c>
+      <c r="G196">
+        <f t="shared" ref="G196:G200" si="3">G195+50</f>
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>51.92</v>
+      </c>
+      <c r="B197">
+        <v>48.87</v>
+      </c>
+      <c r="C197">
+        <v>-1.92</v>
+      </c>
+      <c r="D197">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E197">
+        <v>20.98</v>
+      </c>
+      <c r="F197">
+        <v>22.2</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="3"/>
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>48.87</v>
+      </c>
+      <c r="B198">
+        <v>54.98</v>
+      </c>
+      <c r="C198">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D198">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="E198">
+        <v>22</v>
+      </c>
+      <c r="F198">
+        <v>19.87</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="3"/>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>48.87</v>
+      </c>
+      <c r="B199">
+        <v>45.81</v>
+      </c>
+      <c r="C199">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D199">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E199">
+        <v>22.12</v>
+      </c>
+      <c r="F199">
+        <v>23.03</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="3"/>
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>51.92</v>
+      </c>
+      <c r="B200">
+        <v>51.92</v>
+      </c>
+      <c r="C200">
+        <v>-1.92</v>
+      </c>
+      <c r="D200">
+        <v>-1.92</v>
+      </c>
+      <c r="E200">
+        <v>21.01</v>
+      </c>
+      <c r="F200">
+        <v>21.01</v>
       </c>
       <c r="G200">
         <f t="shared" si="3"/>

--- a/Matthew Data.xlsx
+++ b/Matthew Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Dropbox/Matthew/Documents/RBE 2002/RBE_2002-Team_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B5F4B-58CB-1F4C-8D8E-664EB896B555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369DA6FB-7FE6-FA49-99A7-3EC9CBD48B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{BF9086FB-EEDA-7340-B38B-24D87DE37DE0}"/>
+    <workbookView xWindow="2760" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{BF9086FB-EEDA-7340-B38B-24D87DE37DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2 - 100 Effort" sheetId="1" r:id="rId1"/>
@@ -34617,8 +34617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A9300E-46C4-2A4D-950D-E28FCA0356E1}">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46677,8 +46677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987B675-B009-BA40-81ED-1A7AFE5872B7}">
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D60" workbookViewId="0">
-      <selection activeCell="V69" sqref="V69"/>
+    <sheetView topLeftCell="D60" workbookViewId="0">
+      <selection activeCell="W71" sqref="W71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Matthew Data.xlsx
+++ b/Matthew Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Dropbox/Matthew/Documents/RBE 2002/RBE_2002-Team_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369DA6FB-7FE6-FA49-99A7-3EC9CBD48B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837E18FE-F676-A341-B221-67D309B4A270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{BF9086FB-EEDA-7340-B38B-24D87DE37DE0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Time (ms)</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Right Error (m/s)</t>
+  </si>
+  <si>
+    <t>Left Speed</t>
+  </si>
+  <si>
+    <t>Right Speed</t>
+  </si>
+  <si>
+    <t>Ave:</t>
+  </si>
+  <si>
+    <t>St Dev:</t>
   </si>
 </sst>
 </file>
@@ -33509,16 +33521,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34615,10 +34627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A9300E-46C4-2A4D-950D-E28FCA0356E1}">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34627,7 +34639,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -34637,8 +34649,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>335.98</v>
       </c>
@@ -34648,8 +34666,22 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(A2:A200)</f>
+        <v>305.34140703517551</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(B2:B200)</f>
+        <v>312.98603015075372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>122.17</v>
       </c>
@@ -34660,8 +34692,22 @@
         <f>C2+50</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <f>STDEV(A2:A200)</f>
+        <v>14.296751239007154</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <f>STDEV(B2:B200)</f>
+        <v>15.153799664167165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>247.4</v>
       </c>
@@ -34673,7 +34719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>281</v>
       </c>
@@ -34685,7 +34731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>293.22000000000003</v>
       </c>
@@ -34697,7 +34743,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>299.32</v>
       </c>
@@ -34709,7 +34755,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>302.38</v>
       </c>
@@ -34721,7 +34767,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>299.32</v>
       </c>
@@ -34733,7 +34779,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>305.43</v>
       </c>
@@ -34745,7 +34791,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>302.38</v>
       </c>
@@ -34757,7 +34803,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>305.43</v>
       </c>
@@ -34769,7 +34815,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>305.43</v>
       </c>
@@ -34781,7 +34827,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>299.32</v>
       </c>
@@ -34793,7 +34839,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>305.43</v>
       </c>
@@ -34805,7 +34851,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>308.49</v>
       </c>

--- a/Matthew Data.xlsx
+++ b/Matthew Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Dropbox/Matthew/Documents/RBE 2002/RBE_2002-Team_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837E18FE-F676-A341-B221-67D309B4A270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8CFFAA-9440-CC49-803E-97DBC3DB0C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{BF9086FB-EEDA-7340-B38B-24D87DE37DE0}"/>
+    <workbookView xWindow="2760" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{BF9086FB-EEDA-7340-B38B-24D87DE37DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2 - 100 Effort" sheetId="1" r:id="rId1"/>
@@ -37,33 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Time (ms)</t>
-  </si>
-  <si>
-    <t>Left Speed (m/s)</t>
-  </si>
-  <si>
-    <t>Right Speed  (m/s)</t>
-  </si>
-  <si>
-    <t>Left Speed  (m/s)</t>
   </si>
   <si>
     <t>Right Effort</t>
   </si>
   <si>
     <t>Left Effort</t>
-  </si>
-  <si>
-    <t>Left Error (m/s)</t>
-  </si>
-  <si>
-    <t>Right Speed (m/s)</t>
-  </si>
-  <si>
-    <t>Right Error (m/s)</t>
   </si>
   <si>
     <t>Left Speed</t>
@@ -76,6 +58,18 @@
   </si>
   <si>
     <t>St Dev:</t>
+  </si>
+  <si>
+    <t>Left Speed (mm/s)</t>
+  </si>
+  <si>
+    <t>Left Error (mm/s)</t>
+  </si>
+  <si>
+    <t>Right Error (mm/s)</t>
+  </si>
+  <si>
+    <t>Right Speed (mm/s)</t>
   </si>
 </sst>
 </file>
@@ -209,7 +203,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Left Speed (m/s)</c:v>
+            <c:strRef>
+              <c:f>'Q2 - 100 Effort'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left Speed (mm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1446,7 +1448,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Right Speed (m/s)</c:v>
+            <c:strRef>
+              <c:f>'Q2 - 100 Effort'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right Speed (mm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5776,7 +5786,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Left Speed (m/s)</c:v>
+            <c:strRef>
+              <c:f>'Q3 - 50 mm-s, Kp = 0.3'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left Speed (mm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -7013,7 +7031,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Right Speed (m/s)</c:v>
+            <c:strRef>
+              <c:f>'Q3 - 50 mm-s, Kp = 0.3'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right Speed (mm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -8553,7 +8579,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Left Error (m/s)</c:v>
+                  <c:v>Left Error (mm/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9798,7 +9824,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Right Error (m/s)</c:v>
+                  <c:v>Right Error (mm/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14124,7 +14150,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Left Speed (m/s)</c:v>
+            <c:strRef>
+              <c:f>'Q4 - 50 mm-s, Kp = 10'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left Speed (mm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -15361,7 +15395,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Right Speed (m/s)</c:v>
+            <c:strRef>
+              <c:f>'Q4 - 50 mm-s, Kp = 10'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right Speed (mm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -16901,7 +16943,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Left Error (m/s)</c:v>
+                  <c:v>Left Error (mm/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18146,7 +18188,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Right Error (m/s)</c:v>
+                  <c:v>Right Error (mm/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22472,7 +22514,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Left Speed (m/s)</c:v>
+            <c:strRef>
+              <c:f>'Q5 - 50 mm-s, Kp = .3, Ki = .1'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left Speed (mm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -23709,7 +23759,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Right Speed (m/s)</c:v>
+            <c:strRef>
+              <c:f>'Q5 - 50 mm-s, Kp = .3, Ki = .1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right Speed (mm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -25256,7 +25314,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Left Error (m/s)</c:v>
+                  <c:v>Left Error (mm/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26501,7 +26559,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Right Error (m/s)</c:v>
+                  <c:v>Right Error (mm/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -34629,31 +34687,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A9300E-46C4-2A4D-950D-E28FCA0356E1}">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -34667,14 +34725,14 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <f>AVERAGE(A2:A200)</f>
         <v>305.34140703517551</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <f>AVERAGE(B2:B200)</f>
@@ -34693,14 +34751,14 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f>STDEV(A2:A200)</f>
         <v>14.296751239007154</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <f>STDEV(B2:B200)</f>
@@ -37081,9 +37139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506032B0-FAD5-1B44-8D4D-975DD18F0FB8}">
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="V60" sqref="V60"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -37097,22 +37153,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -41903,7 +41959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A0B43B-5F68-504B-8F7C-2DB455E58917}">
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView topLeftCell="D66" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S98" sqref="S98"/>
     </sheetView>
   </sheetViews>
@@ -41917,22 +41973,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -46723,8 +46779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987B675-B009-BA40-81ED-1A7AFE5872B7}">
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView topLeftCell="D60" workbookViewId="0">
-      <selection activeCell="W71" sqref="W71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46737,22 +46793,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
